--- a/Hotel_df_list2.xlsx
+++ b/Hotel_df_list2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rezas\OneDrive\Desktop\Thesis\Word-Meaning\Results\phase09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF28F17-E98D-423B-B00A-0BC6B334A5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68DE569-B7DC-4BAA-8F1B-65D8DE353A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,17 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="514">
-  <si>
-    <t>org_text</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
   <si>
     <t>text</t>
   </si>
   <si>
-    <t>Label</t>
-  </si>
-  <si>
     <t>simple_majority_voting</t>
   </si>
   <si>
@@ -67,1501 +61,763 @@
     <t>UMP_BERT_Dim5</t>
   </si>
   <si>
-    <t>Their 17 breakfast is really lazily thrown together with cheap products and entirely tasteless honestly not worth it get breakfast somewhere else instead</t>
-  </si>
-  <si>
     <t>Their 17 breakfast is really lazily thrown together with  &lt;em&gt;cheap&lt;/em&gt;  products and entirely tasteless honestly not worth it get breakfast somewhere else instead</t>
   </si>
   <si>
-    <t>Room Cold and uninspiring 4 per drink of cheap orange juice mixed with tap water</t>
-  </si>
-  <si>
     <t>Room Cold and uninspiring 4 per drink of  &lt;em&gt;cheap&lt;/em&gt;  orange juice mixed with tap water</t>
   </si>
   <si>
-    <t>I made a fuss and did get it in the end but I felt like a cheap skate even though it cost me over 350 for the two nights</t>
-  </si>
-  <si>
     <t>I made a fuss and did get it in the end but I felt like a  &lt;em&gt;cheap&lt;/em&gt;  skate even though it cost me over 350 for the two nights</t>
   </si>
   <si>
-    <t>The sausages were undercooked and the beans were cheap</t>
-  </si>
-  <si>
     <t xml:space="preserve">The sausages were undercooked and the beans were  &lt;em&gt;cheap&lt;/em&gt; </t>
   </si>
   <si>
-    <t>there weren t any complementary items worth mentioning just a small amount of cheap shampoo</t>
-  </si>
-  <si>
     <t>there weren t any complementary items worth mentioning just a small amount of  &lt;em&gt;cheap&lt;/em&gt;  shampoo</t>
   </si>
   <si>
-    <t>Room has a one very cheap small table which wobble so badly with two armchairs</t>
-  </si>
-  <si>
     <t>Room has a one very  &lt;em&gt;cheap&lt;/em&gt;  small table which wobble so badly with two armchairs</t>
   </si>
   <si>
-    <t>Not exactly a bad experience but I was disappointed with the quality of facial and toilet tissues provided really cheap and nasty</t>
-  </si>
-  <si>
     <t>Not exactly a bad experience but I was disappointed with the quality of facial and toilet tissues provided really  &lt;em&gt;cheap&lt;/em&gt;  and nasty</t>
   </si>
   <si>
-    <t>Whilst compared to other clients 175 for our small room with no breakfast was clearly a cheap offering by comparison to others available</t>
-  </si>
-  <si>
     <t>Whilst compared to other clients 175 for our small room with no breakfast was clearly a  &lt;em&gt;cheap&lt;/em&gt;  offering by comparison to others available</t>
   </si>
   <si>
-    <t>Also the facial tissue and toilet paper were extremely cheap</t>
-  </si>
-  <si>
     <t xml:space="preserve">Also the facial tissue and toilet paper were extremely  &lt;em&gt;cheap&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Dirty room untidy fittings look cheap and old</t>
-  </si>
-  <si>
     <t>Dirty room untidy fittings look  &lt;em&gt;cheap&lt;/em&gt;  and old</t>
   </si>
   <si>
-    <t>Shower leaked bed was cheap suite was bare walls were dirty</t>
-  </si>
-  <si>
     <t>Shower leaked bed was  &lt;em&gt;cheap&lt;/em&gt;  suite was bare walls were dirty</t>
   </si>
   <si>
-    <t>Carpet was a little shabby and bathroom had seen better days but these are not cheap or easy fixes</t>
-  </si>
-  <si>
     <t>Carpet was a little shabby and bathroom had seen better days but these are not  &lt;em&gt;cheap&lt;/em&gt;  or easy fixes</t>
   </si>
   <si>
-    <t>Room service wasn t cheap and the tray charge and service charge hike the bill</t>
-  </si>
-  <si>
     <t>Room service wasn t  &lt;em&gt;cheap&lt;/em&gt;  and the tray charge and service charge hike the bill</t>
   </si>
   <si>
-    <t>Breakfast was plentiful but the ingredients were cheap</t>
-  </si>
-  <si>
     <t xml:space="preserve">Breakfast was plentiful but the ingredients were  &lt;em&gt;cheap&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Just 5 cheap beds round the pool</t>
-  </si>
-  <si>
     <t>Just 5  &lt;em&gt;cheap&lt;/em&gt;  beds round the pool</t>
   </si>
   <si>
-    <t>Very cheap B and Bs do this so why not an exclusive hotel</t>
-  </si>
-  <si>
     <t>Very  &lt;em&gt;cheap&lt;/em&gt;  B and Bs do this so why not an exclusive hotel</t>
   </si>
   <si>
-    <t>Its not a cheap hotel</t>
-  </si>
-  <si>
     <t>Its not a  &lt;em&gt;cheap&lt;/em&gt;  hotel</t>
   </si>
   <si>
-    <t>There are no restaurants takeaway food outlets nearby which was annoying so if you want to venture around Porte de la Chapelle metro station we found a great cheap and nasty pizza place near there</t>
-  </si>
-  <si>
     <t>There are no restaurants takeaway food outlets nearby which was annoying so if you want to venture around Porte de la Chapelle metro station we found a great  &lt;em&gt;cheap&lt;/em&gt;  and nasty pizza place near there</t>
   </si>
   <si>
-    <t>The room was tiny which was a surprise since it is not a cheap hotel</t>
-  </si>
-  <si>
     <t>The room was tiny which was a surprise since it is not a  &lt;em&gt;cheap&lt;/em&gt;  hotel</t>
   </si>
   <si>
-    <t>Iron and Ironing Board cheap and barely worked</t>
-  </si>
-  <si>
     <t>Iron and Ironing Board  &lt;em&gt;cheap&lt;/em&gt;  and barely worked</t>
   </si>
   <si>
-    <t>The size of room and the mattress was so bad and cheap</t>
-  </si>
-  <si>
     <t xml:space="preserve">The size of room and the mattress was so bad and  &lt;em&gt;cheap&lt;/em&gt; </t>
   </si>
   <si>
-    <t>The coasters were cheap and flimsy</t>
-  </si>
-  <si>
     <t>The coasters were  &lt;em&gt;cheap&lt;/em&gt;  and flimsy</t>
   </si>
   <si>
-    <t>However we didn t explore other options and it was cheap so we don t take it personally</t>
-  </si>
-  <si>
     <t>However we didn t explore other options and it was  &lt;em&gt;cheap&lt;/em&gt;  so we don t take it personally</t>
   </si>
   <si>
-    <t>everything about the place felt cheap and budget</t>
-  </si>
-  <si>
     <t>everything about the place felt  &lt;em&gt;cheap&lt;/em&gt;  and budget</t>
   </si>
   <si>
-    <t>It was nice and clean but it was absolutely tiny and given the cost isn t cheap</t>
-  </si>
-  <si>
     <t xml:space="preserve">It was nice and clean but it was absolutely tiny and given the cost isn t  &lt;em&gt;cheap&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Service was poor and not cheap</t>
-  </si>
-  <si>
     <t xml:space="preserve">Service was poor and not  &lt;em&gt;cheap&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Croissants were cheap imitations</t>
-  </si>
-  <si>
     <t>Croissants were  &lt;em&gt;cheap&lt;/em&gt;  imitations</t>
   </si>
   <si>
-    <t>Not cheap but I expect this is a standard price in central London</t>
-  </si>
-  <si>
     <t>Not  &lt;em&gt;cheap&lt;/em&gt;  but I expect this is a standard price in central London</t>
   </si>
   <si>
-    <t>It is cheap but not good</t>
-  </si>
-  <si>
     <t>It is  &lt;em&gt;cheap&lt;/em&gt;  but not good</t>
   </si>
   <si>
-    <t>Food very basic long queues by locals as cheap</t>
-  </si>
-  <si>
     <t xml:space="preserve">Food very basic long queues by locals as  &lt;em&gt;cheap&lt;/em&gt; </t>
   </si>
   <si>
-    <t>But there is good cheap bus services right outside</t>
-  </si>
-  <si>
     <t>But there is good  &lt;em&gt;cheap&lt;/em&gt;  bus services right outside</t>
   </si>
   <si>
-    <t>The finish in the bedroom walls looked cheap</t>
-  </si>
-  <si>
     <t xml:space="preserve">The finish in the bedroom walls looked  &lt;em&gt;cheap&lt;/em&gt; </t>
   </si>
   <si>
-    <t>The food Breakfast is fine but the room service dinner I had was very disappointing and room services is never cheap</t>
-  </si>
-  <si>
     <t xml:space="preserve">The food Breakfast is fine but the room service dinner I had was very disappointing and room services is never  &lt;em&gt;cheap&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Shower knobs were missing pieces light switches covered in grime a window that looked directly into another guest room window hot sticky air pumped into the room and overall cheap furniture and finishings</t>
-  </si>
-  <si>
     <t>Shower knobs were missing pieces light switches covered in grime a window that looked directly into another guest room window hot sticky air pumped into the room and overall  &lt;em&gt;cheap&lt;/em&gt;  furniture and finishings</t>
   </si>
   <si>
-    <t>when we went for breakfast which was not cheap all the cooked food was cold so we could not eat it</t>
-  </si>
-  <si>
     <t>when we went for breakfast which was not  &lt;em&gt;cheap&lt;/em&gt;  all the cooked food was cold so we could not eat it</t>
   </si>
   <si>
-    <t>There is a tesco nearby if you want cheap supplies</t>
-  </si>
-  <si>
     <t>There is a tesco nearby if you want  &lt;em&gt;cheap&lt;/em&gt;  supplies</t>
   </si>
   <si>
-    <t>Having to pay 24 to park overnight even though we had 2 superior rooms which was not cheap</t>
-  </si>
-  <si>
     <t xml:space="preserve">Having to pay 24 to park overnight even though we had 2 superior rooms which was not  &lt;em&gt;cheap&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Terrible cheap iron which did not work</t>
-  </si>
-  <si>
     <t>Terrible  &lt;em&gt;cheap&lt;/em&gt;  iron which did not work</t>
   </si>
   <si>
-    <t>The shampoo conditioner and shower gel were tiny and by not being an established brand it makes them in any case feel cheap</t>
-  </si>
-  <si>
     <t xml:space="preserve">The shampoo conditioner and shower gel were tiny and by not being an established brand it makes them in any case feel  &lt;em&gt;cheap&lt;/em&gt; </t>
   </si>
   <si>
-    <t>The in room iron is cheap and I scorched my pants using it</t>
-  </si>
-  <si>
     <t>The in room iron is  &lt;em&gt;cheap&lt;/em&gt;  and I scorched my pants using it</t>
   </si>
   <si>
-    <t>This is a fantastic place to stay and felt like true luxury despite the amazingly cheap price that we paid for our stay</t>
-  </si>
-  <si>
     <t>This is a fantastic place to stay and felt like true luxury despite the amazingly  &lt;em&gt;cheap&lt;/em&gt;  price that we paid for our stay</t>
   </si>
   <si>
-    <t>Quality hotel nothing flashy or cheap</t>
-  </si>
-  <si>
     <t xml:space="preserve">Quality hotel nothing flashy or  &lt;em&gt;cheap&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Complimentary wine was a lovely touch for a young couple that wanted a cheap spontaneous get away</t>
-  </si>
-  <si>
     <t>Complimentary wine was a lovely touch for a young couple that wanted a  &lt;em&gt;cheap&lt;/em&gt;  spontaneous get away</t>
   </si>
   <si>
-    <t>Braekfast is not cheap but it is worth for the money</t>
-  </si>
-  <si>
     <t>Braekfast is not  &lt;em&gt;cheap&lt;/em&gt;  but it is worth for the money</t>
   </si>
   <si>
-    <t>There was a multi storey car park just on the next Street which was quite cheap</t>
-  </si>
-  <si>
     <t xml:space="preserve">There was a multi storey car park just on the next Street which was quite  &lt;em&gt;cheap&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Location is far from centre but it s cheap and good</t>
-  </si>
-  <si>
     <t>Location is far from centre but it s  &lt;em&gt;cheap&lt;/em&gt;  and good</t>
   </si>
   <si>
-    <t>Extremely cheap in comparison for the level of comfort</t>
-  </si>
-  <si>
     <t>Extremely  &lt;em&gt;cheap&lt;/em&gt;  in comparison for the level of comfort</t>
   </si>
   <si>
-    <t>The bed was comfortable and the cheap buffet style breakfast also made it a very good deal</t>
-  </si>
-  <si>
     <t>The bed was comfortable and the  &lt;em&gt;cheap&lt;/em&gt;  buffet style breakfast also made it a very good deal</t>
   </si>
   <si>
-    <t>Common places are impressive and the building is remarkably magnificent for such a cheap hotel</t>
-  </si>
-  <si>
     <t>Common places are impressive and the building is remarkably magnificent for such a  &lt;em&gt;cheap&lt;/em&gt;  hotel</t>
   </si>
   <si>
-    <t>And at 240 per night is incredibly cheap for Paris</t>
-  </si>
-  <si>
     <t>And at 240 per night is incredibly  &lt;em&gt;cheap&lt;/em&gt;  for Paris</t>
   </si>
   <si>
-    <t>Very expensive and breakfast was not included</t>
-  </si>
-  <si>
     <t>Very  &lt;em&gt;expensive&lt;/em&gt;  and breakfast was not included</t>
   </si>
   <si>
-    <t>The breakfast can be improved it is quite expensive for its quality</t>
-  </si>
-  <si>
     <t>The breakfast can be improved it is quite  &lt;em&gt;expensive&lt;/em&gt;  for its quality</t>
   </si>
   <si>
-    <t>Very expensive hotel with nothing to make up for the expensive rooms</t>
-  </si>
-  <si>
     <t>Very  &lt;em&gt;expensive&lt;/em&gt;  hotel with nothing to make up for the  &lt;em&gt;expensive&lt;/em&gt;  rooms</t>
   </si>
   <si>
-    <t>Breakfast was crazy expensive</t>
-  </si>
-  <si>
     <t xml:space="preserve">Breakfast was crazy  &lt;em&gt;expensive&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Room service is very expensive and not good quality or as described on the menu</t>
-  </si>
-  <si>
     <t>Room service is very  &lt;em&gt;expensive&lt;/em&gt;  and not good quality or as described on the menu</t>
   </si>
   <si>
-    <t>Breakfast not included in the price and whilst it was good we feel it was on the expensive side</t>
-  </si>
-  <si>
     <t>Breakfast not included in the price and whilst it was good we feel it was on the  &lt;em&gt;expensive&lt;/em&gt;  side</t>
   </si>
   <si>
-    <t>breakfast expensive in comparison to outside restaurants</t>
-  </si>
-  <si>
     <t>breakfast  &lt;em&gt;expensive&lt;/em&gt;  in comparison to outside restaurants</t>
   </si>
   <si>
-    <t>Breakfast was nice but very expensive</t>
-  </si>
-  <si>
     <t xml:space="preserve">Breakfast was nice but very  &lt;em&gt;expensive&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Only cab service to airport is expensive compared to others 48 pounds plus tip</t>
-  </si>
-  <si>
     <t>Only cab service to airport is  &lt;em&gt;expensive&lt;/em&gt;  compared to others 48 pounds plus tip</t>
   </si>
   <si>
-    <t>The hotel only support to call their contracted taxi which is expensive and unsafe</t>
-  </si>
-  <si>
     <t>The hotel only support to call their contracted taxi which is  &lt;em&gt;expensive&lt;/em&gt;  and unsafe</t>
   </si>
   <si>
-    <t>On checking in I was asked to pay for breakfast as its more expensive on the day yet it was already part of the rate</t>
-  </si>
-  <si>
     <t>On checking in I was asked to pay for breakfast as its more  &lt;em&gt;expensive&lt;/em&gt;  on the day yet it was already part of the rate</t>
   </si>
   <si>
-    <t>Parking was handy and safe but quite expensive</t>
-  </si>
-  <si>
     <t xml:space="preserve">Parking was handy and safe but quite  &lt;em&gt;expensive&lt;/em&gt; </t>
   </si>
   <si>
-    <t>We parked about 1 2 mile away but it s expensive</t>
-  </si>
-  <si>
     <t xml:space="preserve">We parked about 1 2 mile away but it s  &lt;em&gt;expensive&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Restaurant expensive given the quality of food</t>
-  </si>
-  <si>
     <t>Restaurant  &lt;em&gt;expensive&lt;/em&gt;  given the quality of food</t>
   </si>
   <si>
-    <t>This time I opted to upgrade to a more expensive room and was surprised that it was much smaller than the room I had stayed in before</t>
-  </si>
-  <si>
     <t>This time I opted to upgrade to a more  &lt;em&gt;expensive&lt;/em&gt;  room and was surprised that it was much smaller than the room I had stayed in before</t>
   </si>
   <si>
-    <t>the room was a lot smaller than previous trips but just as expensive</t>
-  </si>
-  <si>
     <t xml:space="preserve">the room was a lot smaller than previous trips but just as  &lt;em&gt;expensive&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Breakfast is good but quite expensive particularly if you compare it to prices of breakfast to go on Fleet Street</t>
-  </si>
-  <si>
     <t>Breakfast is good but quite  &lt;em&gt;expensive&lt;/em&gt;  particularly if you compare it to prices of breakfast to go on Fleet Street</t>
   </si>
   <si>
-    <t>I realise that good accommodation is expensive in central London but neverthelessI feel this hotel is somewhat costly</t>
-  </si>
-  <si>
     <t>I realise that good accommodation is  &lt;em&gt;expensive&lt;/em&gt;  in central London but neverthelessI feel this hotel is somewhat costly</t>
   </si>
   <si>
-    <t>We chose this expensive hotel because the photos on Booking com seemed to show a rooftop restaurant with views over London and were really looking forward to sitting there in the evening for a meal</t>
-  </si>
-  <si>
     <t>We chose this  &lt;em&gt;expensive&lt;/em&gt;  hotel because the photos on Booking com seemed to show a rooftop restaurant with views over London and were really looking forward to sitting there in the evening for a meal</t>
   </si>
   <si>
-    <t>I stayed on a Sunday night and paid a very good rate for this quality of hotel but expensive during the week</t>
-  </si>
-  <si>
     <t>I stayed on a Sunday night and paid a very good rate for this quality of hotel but  &lt;em&gt;expensive&lt;/em&gt;  during the week</t>
   </si>
   <si>
-    <t>I found the breakfast a bit too expensive but the service was great</t>
-  </si>
-  <si>
     <t>I found the breakfast a bit too  &lt;em&gt;expensive&lt;/em&gt;  but the service was great</t>
   </si>
   <si>
-    <t>Breakfast too expensive so ate elsewhere</t>
-  </si>
-  <si>
     <t>Breakfast too  &lt;em&gt;expensive&lt;/em&gt;  so ate elsewhere</t>
   </si>
   <si>
-    <t>too expensive for me most of the time</t>
-  </si>
-  <si>
     <t>too  &lt;em&gt;expensive&lt;/em&gt;  for me most of the time</t>
   </si>
   <si>
-    <t>bar a little expensive compared to other similar venues</t>
-  </si>
-  <si>
     <t>bar a little  &lt;em&gt;expensive&lt;/em&gt;  compared to other similar venues</t>
   </si>
   <si>
-    <t>I still found the hotel a little on the expensive side</t>
-  </si>
-  <si>
     <t>I still found the hotel a little on the  &lt;em&gt;expensive&lt;/em&gt;  side</t>
   </si>
   <si>
-    <t>A poor experience compared to the Hilton or other equivalent lounges I wouldn t have minded that much but I purposely opted for the more expensive room with lounge access</t>
-  </si>
-  <si>
     <t>A poor experience compared to the Hilton or other equivalent lounges I wouldn t have minded that much but I purposely opted for the more  &lt;em&gt;expensive&lt;/em&gt;  room with lounge access</t>
   </si>
   <si>
-    <t>Nice restaurant although felt breakfast was rather expensive at 17 50 per head</t>
-  </si>
-  <si>
     <t>Nice restaurant although felt breakfast was rather  &lt;em&gt;expensive&lt;/em&gt;  at 17 50 per head</t>
   </si>
   <si>
-    <t>Drinks in the bar were good and not overly expensive</t>
-  </si>
-  <si>
     <t xml:space="preserve">Drinks in the bar were good and not overly  &lt;em&gt;expensive&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Breakfast was included making the price a little more reasonable than many hotels in this very expensive city</t>
-  </si>
-  <si>
     <t>Breakfast was included making the price a little more reasonable than many hotels in this very  &lt;em&gt;expensive&lt;/em&gt;  city</t>
   </si>
   <si>
-    <t>Parking available although quite expensive</t>
-  </si>
-  <si>
     <t xml:space="preserve">Parking available although quite  &lt;em&gt;expensive&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Cleaner and better appointed room than much more expensive alternatives</t>
-  </si>
-  <si>
     <t>Cleaner and better appointed room than much more  &lt;em&gt;expensive&lt;/em&gt;  alternatives</t>
   </si>
   <si>
-    <t>Might seem expensive but you get what you pay for</t>
-  </si>
-  <si>
     <t>Might seem  &lt;em&gt;expensive&lt;/em&gt;  but you get what you pay for</t>
   </si>
   <si>
-    <t>It was clean and comfortable and exactly where we needed to be but it was very expensive</t>
-  </si>
-  <si>
     <t xml:space="preserve">It was clean and comfortable and exactly where we needed to be but it was very  &lt;em&gt;expensive&lt;/em&gt; </t>
   </si>
   <si>
-    <t>the bikkies everyday are a nice touch though if they had provided botlled water that too would have been good not so expensive for them</t>
-  </si>
-  <si>
     <t>the bikkies everyday are a nice touch though if they had provided botlled water that too would have been good not so  &lt;em&gt;expensive&lt;/em&gt;  for them</t>
   </si>
   <si>
-    <t>Good service in the bar and not expensive by London standards</t>
-  </si>
-  <si>
     <t>Good service in the bar and not  &lt;em&gt;expensive&lt;/em&gt;  by London standards</t>
   </si>
   <si>
-    <t>The hotel looks and feels like it should be a lot more expensive for what it is and that s a testiment to the hotel</t>
-  </si>
-  <si>
     <t>The hotel looks and feels like it should be a lot more  &lt;em&gt;expensive&lt;/em&gt;  for what it is and that s a testiment to the hotel</t>
   </si>
   <si>
-    <t>Worth noting that the traffic here isn t too busy at night and a taxi back is not too expensive</t>
-  </si>
-  <si>
     <t xml:space="preserve">Worth noting that the traffic here isn t too busy at night and a taxi back is not too  &lt;em&gt;expensive&lt;/em&gt; </t>
   </si>
   <si>
-    <t>We thought breakfast was expensive so didn t breakfast in the hotel</t>
-  </si>
-  <si>
     <t>We thought breakfast was  &lt;em&gt;expensive&lt;/em&gt;  so didn t breakfast in the hotel</t>
   </si>
   <si>
-    <t>The restaurant was excellent quality and not too expensive</t>
-  </si>
-  <si>
     <t xml:space="preserve">The restaurant was excellent quality and not too  &lt;em&gt;expensive&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Price expensive as per all of London</t>
-  </si>
-  <si>
     <t>Price  &lt;em&gt;expensive&lt;/em&gt;  as per all of London</t>
   </si>
   <si>
-    <t>We used the restaurants in the hotel and the food was excellent though expensive but again for London it was fine</t>
-  </si>
-  <si>
     <t>We used the restaurants in the hotel and the food was excellent though  &lt;em&gt;expensive&lt;/em&gt;  but again for London it was fine</t>
   </si>
   <si>
-    <t>The choice and quality of the breakfast buffet was up there with more expensive hotels</t>
-  </si>
-  <si>
     <t>The choice and quality of the breakfast buffet was up there with more  &lt;em&gt;expensive&lt;/em&gt;  hotels</t>
   </si>
   <si>
-    <t>And health club spa service is fantastic but quite expensive</t>
-  </si>
-  <si>
     <t xml:space="preserve">And health club spa service is fantastic but quite  &lt;em&gt;expensive&lt;/em&gt; </t>
   </si>
   <si>
-    <t>The taxi from the airport was expensive</t>
-  </si>
-  <si>
     <t xml:space="preserve">The taxi from the airport was  &lt;em&gt;expensive&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Spot on location very friendly staff and yes breakfast was a little expensive but the pastries were amazing</t>
-  </si>
-  <si>
     <t>Spot on location very friendly staff and yes breakfast was a little  &lt;em&gt;expensive&lt;/em&gt;  but the pastries were amazing</t>
   </si>
   <si>
-    <t>Excellent food and wine albeit on the expensive side</t>
-  </si>
-  <si>
     <t>Excellent food and wine albeit on the  &lt;em&gt;expensive&lt;/em&gt;  side</t>
   </si>
   <si>
-    <t>Good breakfast but 25euro per head a little expensive</t>
-  </si>
-  <si>
     <t xml:space="preserve">Good breakfast but 25euro per head a little  &lt;em&gt;expensive&lt;/em&gt; </t>
   </si>
   <si>
-    <t>I basically slept there and was out the whole day so it s quite expensive to just sleep and shower but generally a decent deal</t>
-  </si>
-  <si>
     <t>I basically slept there and was out the whole day so it s quite  &lt;em&gt;expensive&lt;/em&gt;  to just sleep and shower but generally a decent deal</t>
   </si>
   <si>
-    <t>Breakfast was great but a tad expensive</t>
-  </si>
-  <si>
     <t xml:space="preserve">Breakfast was great but a tad  &lt;em&gt;expensive&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Very expensive for a tiny room</t>
-  </si>
-  <si>
     <t>Very  &lt;em&gt;expensive&lt;/em&gt;  for a tiny room</t>
   </si>
   <si>
-    <t>Cafe Nero is kitty corner for delicious coffee makes for an inexpensive continental breakfast</t>
-  </si>
-  <si>
     <t>Cafe Nero is kitty corner for delicious coffee makes for an  &lt;em&gt;inexpensive&lt;/em&gt;  continental breakfast</t>
   </si>
   <si>
-    <t>Breakfast buffet was relatively inexpensive and included all the basics coffee juice croissants cheese hard boiled eggs cereal yogurt jam fruit</t>
-  </si>
-  <si>
     <t>Breakfast buffet was relatively  &lt;em&gt;inexpensive&lt;/em&gt;  and included all the basics coffee juice croissants cheese hard boiled eggs cereal yogurt jam fruit</t>
   </si>
   <si>
-    <t>Perfect inexpensive weekend hotel in London</t>
-  </si>
-  <si>
     <t>Perfect  &lt;em&gt;inexpensive&lt;/em&gt;  weekend hotel in London</t>
   </si>
   <si>
-    <t>This is nice because it is very quiet and inexpensive but be prepared to walk a LOT or take taxis</t>
-  </si>
-  <si>
     <t>This is nice because it is very quiet and  &lt;em&gt;inexpensive&lt;/em&gt;  but be prepared to walk a LOT or take taxis</t>
   </si>
   <si>
-    <t>The hotel was within easy walking distance from the Eiffel Tower which we had a beautiful view of from our hotel room the metro numerous cafes and a small dept store up the block which had a wonderful bakery inexpensive baguettes croissants etc all within a short walking distance</t>
-  </si>
-  <si>
     <t>The hotel was within easy walking distance from the Eiffel Tower which we had a beautiful view of from our hotel room the metro numerous cafes and a small dept store up the block which had a wonderful bakery  &lt;em&gt;inexpensive&lt;/em&gt;  baguettes croissants etc all within a short walking distance</t>
   </si>
   <si>
-    <t>No fuss to book and a great clean room bigger than we expected and a nice fully stocked inexpensive minibar to boot</t>
-  </si>
-  <si>
     <t>No fuss to book and a great clean room bigger than we expected and a nice fully stocked  &lt;em&gt;inexpensive&lt;/em&gt;  minibar to boot</t>
   </si>
   <si>
-    <t>Several inexpensive breakfast options just around the corner</t>
-  </si>
-  <si>
     <t>Several  &lt;em&gt;inexpensive&lt;/em&gt;  breakfast options just around the corner</t>
   </si>
   <si>
-    <t>I guess that the idea is to make you feel at home offering a lobby with free Ipads netflix games and an inexpensive selection of good wine</t>
-  </si>
-  <si>
     <t>I guess that the idea is to make you feel at home offering a lobby with free Ipads netflix games and an  &lt;em&gt;inexpensive&lt;/em&gt;  selection of good wine</t>
   </si>
   <si>
-    <t>There are several tasty inexpensive restaurants and cafes in the area as well as a couple of Costa coffee shops although we also enjoyed drinks and an evening snack at the hotel s bar</t>
-  </si>
-  <si>
     <t>There are several tasty  &lt;em&gt;inexpensive&lt;/em&gt;  restaurants and cafes in the area as well as a couple of Costa coffee shops although we also enjoyed drinks and an evening snack at the hotel s bar</t>
   </si>
   <si>
-    <t>The closeness to Paddington Station is a real bonus and there are numerous small inexpensive restaurants in the area</t>
-  </si>
-  <si>
     <t>The closeness to Paddington Station is a real bonus and there are numerous small  &lt;em&gt;inexpensive&lt;/em&gt;  restaurants in the area</t>
   </si>
   <si>
-    <t>The pizzeria provides an inexpensive option for dining and food is always good</t>
-  </si>
-  <si>
     <t>The pizzeria provides an  &lt;em&gt;inexpensive&lt;/em&gt;  option for dining and food is always good</t>
   </si>
   <si>
-    <t>Many inexpensive restaurants nearby</t>
-  </si>
-  <si>
     <t>Many  &lt;em&gt;inexpensive&lt;/em&gt;  restaurants nearby</t>
   </si>
   <si>
-    <t>Wonderful and inexpensive breakfast</t>
-  </si>
-  <si>
     <t>Wonderful and  &lt;em&gt;inexpensive&lt;/em&gt;  breakfast</t>
   </si>
   <si>
-    <t>We were walking distance to a huge portion of the city and only a short inexpensive can ride to anywhere else</t>
-  </si>
-  <si>
     <t>We were walking distance to a huge portion of the city and only a short  &lt;em&gt;inexpensive&lt;/em&gt;  can ride to anywhere else</t>
   </si>
   <si>
-    <t>The bonus is the hotel is just around the corner from Chartier one of the most popular and inexpensive restaurants in Paris</t>
-  </si>
-  <si>
     <t>The bonus is the hotel is just around the corner from Chartier one of the most popular and  &lt;em&gt;inexpensive&lt;/em&gt;  restaurants in Paris</t>
   </si>
   <si>
-    <t>meal was superb not inexpensive but little in Paris is</t>
-  </si>
-  <si>
     <t>meal was superb not  &lt;em&gt;inexpensive&lt;/em&gt;  but little in Paris is</t>
   </si>
   <si>
-    <t>Great position relatively inexpensive for Mayfair</t>
-  </si>
-  <si>
     <t>Great position relatively  &lt;em&gt;inexpensive&lt;/em&gt;  for Mayfair</t>
   </si>
   <si>
-    <t>Though not inexpensive for Paris it was still good value for what I paid</t>
-  </si>
-  <si>
     <t>Though not  &lt;em&gt;inexpensive&lt;/em&gt;  for Paris it was still good value for what I paid</t>
   </si>
   <si>
-    <t>Not an inexpensive hotel but for the quality and location in Paris we think it is a good value</t>
-  </si>
-  <si>
     <t>Not an  &lt;em&gt;inexpensive&lt;/em&gt;  hotel but for the quality and location in Paris we think it is a good value</t>
   </si>
   <si>
-    <t>Good transport around London available and he nearby Berkshire shopping center convenient for its large Waitrose and a good selection of inexpensive restaurants a 15 min walk away</t>
-  </si>
-  <si>
     <t>Good transport around London available and he nearby Berkshire shopping center convenient for its large Waitrose and a good selection of  &lt;em&gt;inexpensive&lt;/em&gt;  restaurants a 15 min walk away</t>
   </si>
   <si>
-    <t>Go down the lane backing onto the hotel for inexpensive dining options</t>
-  </si>
-  <si>
     <t>Go down the lane backing onto the hotel for  &lt;em&gt;inexpensive&lt;/em&gt;  dining options</t>
   </si>
   <si>
-    <t>Surprisingly friendly and attentive staff for a hotel in London that was relatively inexpensive</t>
-  </si>
-  <si>
     <t xml:space="preserve">Surprisingly friendly and attentive staff for a hotel in London that was relatively  &lt;em&gt;inexpensive&lt;/em&gt; </t>
   </si>
   <si>
-    <t>booked a great inexpensive taxi shuttle to airport</t>
-  </si>
-  <si>
     <t>booked a great  &lt;em&gt;inexpensive&lt;/em&gt;  taxi shuttle to airport</t>
   </si>
   <si>
-    <t>It s not inexpensive but you could easily spend twice as much at the Savoy for little or no better an experience</t>
-  </si>
-  <si>
     <t>It s not  &lt;em&gt;inexpensive&lt;/em&gt;  but you could easily spend twice as much at the Savoy for little or no better an experience</t>
   </si>
   <si>
-    <t>It met my requirements for an inexpensive safe and clean night away from home between business meetings in London</t>
-  </si>
-  <si>
     <t>It met my requirements for an  &lt;em&gt;inexpensive&lt;/em&gt;  safe and clean night away from home between business meetings in London</t>
   </si>
   <si>
-    <t>They weren t inexpensive</t>
-  </si>
-  <si>
     <t xml:space="preserve">They weren t  &lt;em&gt;inexpensive&lt;/em&gt; </t>
   </si>
   <si>
-    <t>There are many neighborhood restaurants that offer good and inexpensive breakfasts</t>
-  </si>
-  <si>
     <t>There are many neighborhood restaurants that offer good and  &lt;em&gt;inexpensive&lt;/em&gt;  breakfasts</t>
   </si>
   <si>
-    <t>It was ever so slightly further out than places we ve stayed before however the hotel was so nice and Uber taxi s are inexpensive so I would definitely stay here again</t>
-  </si>
-  <si>
     <t>It was ever so slightly further out than places we ve stayed before however the hotel was so nice and Uber taxi s are  &lt;em&gt;inexpensive&lt;/em&gt;  so I would definitely stay here again</t>
   </si>
   <si>
-    <t>Mattresses were firm inexpensive kind</t>
-  </si>
-  <si>
     <t>Mattresses were firm  &lt;em&gt;inexpensive&lt;/em&gt;  kind</t>
   </si>
   <si>
-    <t>The inexpensive single room is on the top floor a long walk with a suitcase</t>
-  </si>
-  <si>
     <t>The  &lt;em&gt;inexpensive&lt;/em&gt;  single room is on the top floor a long walk with a suitcase</t>
   </si>
   <si>
-    <t>This was not an inexpensive stay and I expected better for my money</t>
-  </si>
-  <si>
     <t>This was not an  &lt;em&gt;inexpensive&lt;/em&gt;  stay and I expected better for my money</t>
   </si>
   <si>
-    <t>This was my most costly booking and to be fair given the location I think it was relatively inexpensive but in retrospect I enjoyed my stays in smaller guest houses where the host and hostess really go out of their way to make you feel at home and provide you with whatever you need and in all cases with less means</t>
-  </si>
-  <si>
     <t>This was my most costly booking and to be fair given the location I think it was relatively  &lt;em&gt;inexpensive&lt;/em&gt;  but in retrospect I enjoyed my stays in smaller guest houses where the host and hostess really go out of their way to make you feel at home and provide you with whatever you need and in all cases with less means</t>
   </si>
   <si>
-    <t>Not inexpensive but for this standard in Paris to be expected</t>
-  </si>
-  <si>
     <t>Not  &lt;em&gt;inexpensive&lt;/em&gt;  but for this standard in Paris to be expected</t>
   </si>
   <si>
-    <t>the only thing is Claridge s is not cheap even for the least inexpensive room to stay at</t>
-  </si>
-  <si>
     <t>the only thing is Claridge s is not cheap even for the least  &lt;em&gt;inexpensive&lt;/em&gt;  room to stay at</t>
   </si>
   <si>
-    <t>Lack of an inexpensive grab n go coffee and pastry</t>
-  </si>
-  <si>
     <t>Lack of an  &lt;em&gt;inexpensive&lt;/em&gt;  grab n go coffee and pastry</t>
   </si>
   <si>
-    <t>We do not believe that can be acceptable in a not inexpensive 4 Star Hotel</t>
-  </si>
-  <si>
     <t>We do not believe that can be acceptable in a not  &lt;em&gt;inexpensive&lt;/em&gt;  4 Star Hotel</t>
   </si>
   <si>
-    <t>Biscuits are quite inexpensive</t>
-  </si>
-  <si>
     <t xml:space="preserve">Biscuits are quite  &lt;em&gt;inexpensive&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Otherwise the travel is very inexpensive and convenient in this big city</t>
-  </si>
-  <si>
     <t>Otherwise the travel is very  &lt;em&gt;inexpensive&lt;/em&gt;  and convenient in this big city</t>
   </si>
   <si>
-    <t>Our room was inexpensive so we were put in one of 3 rooms that were left untouched during the renovations</t>
-  </si>
-  <si>
     <t>Our room was  &lt;em&gt;inexpensive&lt;/em&gt;  so we were put in one of 3 rooms that were left untouched during the renovations</t>
   </si>
   <si>
-    <t>Expensive breakfast but inexpensive option next door</t>
-  </si>
-  <si>
     <t>Expensive breakfast but  &lt;em&gt;inexpensive&lt;/em&gt;  option next door</t>
   </si>
   <si>
-    <t>I suppose there are a few who will pay the relatively exorbitant prices for the laundry service but I think a relatively inexpensive laundry service would be a huge draw to an untapped clientele</t>
-  </si>
-  <si>
     <t>I suppose there are a few who will pay the relatively exorbitant prices for the laundry service but I think a relatively  &lt;em&gt;inexpensive&lt;/em&gt;  laundry service would be a huge draw to an untapped clientele</t>
   </si>
   <si>
-    <t>Rooms were so inexpensive it didn t matter</t>
-  </si>
-  <si>
     <t>Rooms were so  &lt;em&gt;inexpensive&lt;/em&gt;  it didn t matter</t>
   </si>
   <si>
-    <t>Like any good hotel in Barcelona it s not inexpensive but in our view it was worth it</t>
-  </si>
-  <si>
     <t>Like any good hotel in Barcelona it s not  &lt;em&gt;inexpensive&lt;/em&gt;  but in our view it was worth it</t>
   </si>
   <si>
-    <t>No informal and inexpensive dining or drinking options but there are plenty of reasonable restaurants nearby</t>
-  </si>
-  <si>
     <t>No informal and  &lt;em&gt;inexpensive&lt;/em&gt;  dining or drinking options but there are plenty of reasonable restaurants nearby</t>
   </si>
   <si>
-    <t>This was not an inexpensive hotel and for what I paid I would have expected a lot more in terms of service and cleanliness</t>
-  </si>
-  <si>
     <t>This was not an  &lt;em&gt;inexpensive&lt;/em&gt;  hotel and for what I paid I would have expected a lot more in terms of service and cleanliness</t>
   </si>
   <si>
-    <t>Very busy in the breakfast restaurant and very noisy however breakfast is good and inexpensive</t>
-  </si>
-  <si>
     <t xml:space="preserve">Very busy in the breakfast restaurant and very noisy however breakfast is good and  &lt;em&gt;inexpensive&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Not inexpensive however but all decent hotels in Amsterdam are pricey</t>
-  </si>
-  <si>
     <t>Not  &lt;em&gt;inexpensive&lt;/em&gt;  however but all decent hotels in Amsterdam are pricey</t>
   </si>
   <si>
-    <t>Breakfast should be included in the not inexpensive room charge</t>
-  </si>
-  <si>
     <t>Breakfast should be included in the not  &lt;em&gt;inexpensive&lt;/em&gt;  room charge</t>
   </si>
   <si>
-    <t>The hotel staff wasn t very friendly even though it is not inexpensive to stay there</t>
-  </si>
-  <si>
     <t>The hotel staff wasn t very friendly even though it is not  &lt;em&gt;inexpensive&lt;/em&gt;  to stay there</t>
   </si>
   <si>
-    <t>I disappointed that the not inexpensive cost of a room did not include the price of breakfast which was available at an extra cost of 23 Euros</t>
-  </si>
-  <si>
     <t>I disappointed that the not  &lt;em&gt;inexpensive&lt;/em&gt;  cost of a room did not include the price of breakfast which was available at an extra cost of 23 Euros</t>
   </si>
   <si>
-    <t>Excellent costumer service good location best hotel we made so far in London city and not too costly</t>
-  </si>
-  <si>
     <t xml:space="preserve">Excellent costumer service good location best hotel we made so far in London city and not too  &lt;em&gt;costly&lt;/em&gt; </t>
   </si>
   <si>
-    <t>its a bit costly but is worth every penny</t>
-  </si>
-  <si>
     <t>its a bit  &lt;em&gt;costly&lt;/em&gt;  but is worth every penny</t>
   </si>
   <si>
-    <t>Items in the mini bar are not too costly</t>
-  </si>
-  <si>
     <t xml:space="preserve">Items in the mini bar are not too  &lt;em&gt;costly&lt;/em&gt; </t>
   </si>
   <si>
-    <t>If you re looking for a more authentic and less costly breakfast experience look out Tony s cafe 5 mins walk away towards Pimlico</t>
-  </si>
-  <si>
     <t>If you re looking for a more authentic and less  &lt;em&gt;costly&lt;/em&gt;  breakfast experience look out Tony s cafe 5 mins walk away towards Pimlico</t>
   </si>
   <si>
-    <t>Excellent customer service and accommodation but drinks food too costly</t>
-  </si>
-  <si>
     <t xml:space="preserve">Excellent customer service and accommodation but drinks food too  &lt;em&gt;costly&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Fairly acceptable price at this time of year in comparison with other very costly hotels</t>
-  </si>
-  <si>
     <t>Fairly acceptable price at this time of year in comparison with other very  &lt;em&gt;costly&lt;/em&gt;  hotels</t>
   </si>
   <si>
-    <t>costly but again knew I was paying for the location</t>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;em&gt;costly&lt;/em&gt;  but again knew I was paying for the location</t>
   </si>
   <si>
-    <t>On site parking was available and not too costly</t>
-  </si>
-  <si>
     <t xml:space="preserve">On site parking was available and not too  &lt;em&gt;costly&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Excellent location easy to meet up as well to shop and hang out in the evening do not need to take costly cab</t>
-  </si>
-  <si>
     <t>Excellent location easy to meet up as well to shop and hang out in the evening do not need to take  &lt;em&gt;costly&lt;/em&gt;  cab</t>
   </si>
   <si>
-    <t>Overall a pleasant but quite costly experience</t>
-  </si>
-  <si>
     <t>Overall a pleasant but quite  &lt;em&gt;costly&lt;/em&gt;  experience</t>
   </si>
   <si>
-    <t>Great breakfast although not included in price so a costly way to eat</t>
-  </si>
-  <si>
     <t>Great breakfast although not included in price so a  &lt;em&gt;costly&lt;/em&gt;  way to eat</t>
   </si>
   <si>
-    <t>We would have done this if the hotel had not advised us to order a more costly car transfer service instead of taking the metro</t>
-  </si>
-  <si>
     <t>We would have done this if the hotel had not advised us to order a more  &lt;em&gt;costly&lt;/em&gt;  car transfer service instead of taking the metro</t>
   </si>
   <si>
-    <t>But because of its excellency it has a costly price</t>
-  </si>
-  <si>
     <t>But because of its excellency it has a  &lt;em&gt;costly&lt;/em&gt;  price</t>
   </si>
   <si>
-    <t>Buffet breakfast has different food variety but costly</t>
-  </si>
-  <si>
     <t xml:space="preserve">Buffet breakfast has different food variety but  &lt;em&gt;costly&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Staff were very helpful and charming which did compensate for this rather costly stay</t>
-  </si>
-  <si>
     <t>Staff were very helpful and charming which did compensate for this rather  &lt;em&gt;costly&lt;/em&gt;  stay</t>
   </si>
   <si>
-    <t>Breakfast is Good enough but little costly</t>
-  </si>
-  <si>
     <t xml:space="preserve">Breakfast is Good enough but little  &lt;em&gt;costly&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Bar prices far to costly</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bar prices far to  &lt;em&gt;costly&lt;/em&gt; </t>
   </si>
   <si>
-    <t>A modern clean look with all the luxury basics without the costly grandeur</t>
-  </si>
-  <si>
     <t>A modern clean look with all the luxury basics without the  &lt;em&gt;costly&lt;/em&gt;  grandeur</t>
   </si>
   <si>
-    <t>Chose not to do breakfast due to what I considered to be costly</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chose not to do breakfast due to what I considered to be  &lt;em&gt;costly&lt;/em&gt; </t>
   </si>
   <si>
-    <t>But unfortunately we were given incorrect information about the transport pass we purchased from them which ended up being quite costly</t>
-  </si>
-  <si>
     <t xml:space="preserve">But unfortunately we were given incorrect information about the transport pass we purchased from them which ended up being quite  &lt;em&gt;costly&lt;/em&gt; </t>
   </si>
   <si>
-    <t>It was costly by taxi</t>
-  </si>
-  <si>
     <t>It was  &lt;em&gt;costly&lt;/em&gt;  by taxi</t>
   </si>
   <si>
-    <t>The breakfast is quite costly at 26 Euro but totally worth it</t>
-  </si>
-  <si>
     <t>The breakfast is quite  &lt;em&gt;costly&lt;/em&gt;  at 26 Euro but totally worth it</t>
   </si>
   <si>
-    <t>Lots of wonderful eating close by so skipping costly hotel breakfast makes sense</t>
-  </si>
-  <si>
     <t>Lots of wonderful eating close by so skipping  &lt;em&gt;costly&lt;/em&gt;  hotel breakfast makes sense</t>
   </si>
   <si>
-    <t>Location was excellent restaurant had really nice food and not too costly</t>
-  </si>
-  <si>
     <t xml:space="preserve">Location was excellent restaurant had really nice food and not too  &lt;em&gt;costly&lt;/em&gt; </t>
   </si>
   <si>
-    <t>We stayed here for the location which is a short walk from the cathedral and other city center sites and it is a little more costly than our usual stay but the location made it worth the cost</t>
-  </si>
-  <si>
     <t>We stayed here for the location which is a short walk from the cathedral and other city center sites and it is a little more  &lt;em&gt;costly&lt;/em&gt;  than our usual stay but the location made it worth the cost</t>
   </si>
   <si>
     <t xml:space="preserve">I realise that good accommodation is expensive in central London but neverthelessI feel this hotel is somewhat  &lt;em&gt;costly&lt;/em&gt; </t>
   </si>
   <si>
-    <t>7 for a bottle of peroni in the two bars i thought was a bit costly</t>
-  </si>
-  <si>
     <t xml:space="preserve">7 for a bottle of peroni in the two bars i thought was a bit  &lt;em&gt;costly&lt;/em&gt; </t>
   </si>
   <si>
-    <t>particularly the toast very costly for what you actually get</t>
-  </si>
-  <si>
     <t>particularly the toast very  &lt;em&gt;costly&lt;/em&gt;  for what you actually get</t>
   </si>
   <si>
-    <t>costly for what was offered</t>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;em&gt;costly&lt;/em&gt;  for what was offered</t>
   </si>
   <si>
-    <t>Overall I have had far better rooms in less costly hotels and I would be reluctant to to recommend this hotel</t>
-  </si>
-  <si>
     <t>Overall I have had far better rooms in less  &lt;em&gt;costly&lt;/em&gt;  hotels and I would be reluctant to to recommend this hotel</t>
   </si>
   <si>
-    <t>It has become more expensive over the years so with family totalling 6 it is becoming costly</t>
-  </si>
-  <si>
     <t xml:space="preserve">It has become more expensive over the years so with family totalling 6 it is becoming  &lt;em&gt;costly&lt;/em&gt; </t>
   </si>
   <si>
-    <t>We also would have taken the breakfast option if it weren t so costly</t>
-  </si>
-  <si>
     <t xml:space="preserve">We also would have taken the breakfast option if it weren t so  &lt;em&gt;costly&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Breakfast is a bit costly</t>
-  </si>
-  <si>
     <t xml:space="preserve">Breakfast is a bit  &lt;em&gt;costly&lt;/em&gt; </t>
   </si>
   <si>
-    <t>I think the price of breakfast was costly even for London</t>
-  </si>
-  <si>
     <t>I think the price of breakfast was  &lt;em&gt;costly&lt;/em&gt;  even for London</t>
   </si>
   <si>
-    <t>It was quite costly and they didn t do anything nice or extra for our anniversary like I had asked</t>
-  </si>
-  <si>
     <t>It was quite  &lt;em&gt;costly&lt;/em&gt;  and they didn t do anything nice or extra for our anniversary like I had asked</t>
   </si>
   <si>
-    <t>we could ve upgraded but this was costly</t>
-  </si>
-  <si>
     <t xml:space="preserve">we could ve upgraded but this was  &lt;em&gt;costly&lt;/em&gt; </t>
   </si>
   <si>
-    <t>In the end we opted to use their own valet service which was great but quite costly</t>
-  </si>
-  <si>
     <t xml:space="preserve">In the end we opted to use their own valet service which was great but quite  &lt;em&gt;costly&lt;/em&gt; </t>
   </si>
   <si>
-    <t>All payments MUST be made in which is very inconvenient and costly for those of us who carry US</t>
-  </si>
-  <si>
     <t>All payments MUST be made in which is very inconvenient and  &lt;em&gt;costly&lt;/em&gt;  for those of us who carry US</t>
   </si>
   <si>
-    <t>Maybe slightly costly but compared to several others there was not much in it</t>
-  </si>
-  <si>
     <t>Maybe slightly  &lt;em&gt;costly&lt;/em&gt;  but compared to several others there was not much in it</t>
   </si>
   <si>
-    <t>The room service food was terrible but costly</t>
-  </si>
-  <si>
     <t xml:space="preserve">The room service food was terrible but  &lt;em&gt;costly&lt;/em&gt; </t>
   </si>
   <si>
-    <t>costly car parking</t>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;em&gt;costly&lt;/em&gt;  car parking</t>
   </si>
   <si>
-    <t>Due to location can be very costly to stay in the area</t>
-  </si>
-  <si>
     <t>Due to location can be very  &lt;em&gt;costly&lt;/em&gt;  to stay in the area</t>
   </si>
   <si>
-    <t>Room service menu is somewhat limited and quite costly</t>
-  </si>
-  <si>
     <t xml:space="preserve">Room service menu is somewhat limited and quite  &lt;em&gt;costly&lt;/em&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">It s about 23 euros to park your car there overnight so if you are thinking of driving to and leaving your car there it could end up being quite costly </t>
-  </si>
-  <si>
     <t xml:space="preserve">It s about 23 euros to park your car there overnight so if you are thinking of driving to and leaving your car there it could end up being quite  &lt;em&gt;costly&lt;/em&gt;  </t>
   </si>
   <si>
-    <t>Breakfast at 19 EUR person pretty costly</t>
-  </si>
-  <si>
     <t xml:space="preserve">Breakfast at 19 EUR person pretty  &lt;em&gt;costly&lt;/em&gt; </t>
   </si>
   <si>
-    <t>We didn t have the breakfast but from what I could see it was in a dark room and quite costly</t>
-  </si>
-  <si>
     <t xml:space="preserve">We didn t have the breakfast but from what I could see it was in a dark room and quite  &lt;em&gt;costly&lt;/em&gt; </t>
   </si>
   <si>
-    <t>I knew I was getting the costly room but didn t expect the shower also to be part of the cosy package</t>
-  </si>
-  <si>
     <t>I knew I was getting the  &lt;em&gt;costly&lt;/em&gt;  room but didn t expect the shower also to be part of the cosy package</t>
   </si>
   <si>
     <t>This was my most  &lt;em&gt;costly&lt;/em&gt;  booking and to be fair given the location I think it was relatively inexpensive but in retrospect I enjoyed my stays in smaller guest houses where the host and hostess really go out of their way to make you feel at home and provide you with whatever you need and in all cases with less means</t>
   </si>
   <si>
-    <t>A little costly for an essentially posh Easyhotel pod with a few gimmicks</t>
-  </si>
-  <si>
     <t>A little  &lt;em&gt;costly&lt;/em&gt;  for an essentially posh Easyhotel pod with a few gimmicks</t>
   </si>
   <si>
-    <t>Breakfast food in the hotel was quite costly</t>
-  </si>
-  <si>
     <t xml:space="preserve">Breakfast food in the hotel was quite  &lt;em&gt;costly&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Little bit on the pricey side</t>
-  </si>
-  <si>
     <t>Little bit on the  &lt;em&gt;pricey&lt;/em&gt;  side</t>
   </si>
   <si>
-    <t>Breakfast was a bit pricey especially for two people combined</t>
-  </si>
-  <si>
     <t>Breakfast was a bit  &lt;em&gt;pricey&lt;/em&gt;  especially for two people combined</t>
   </si>
   <si>
-    <t>Quite pricey considering breakfast was extra</t>
-  </si>
-  <si>
     <t>Quite  &lt;em&gt;pricey&lt;/em&gt;  considering breakfast was extra</t>
   </si>
   <si>
-    <t>Bit pricey compared with other similar London stays</t>
-  </si>
-  <si>
     <t>Bit  &lt;em&gt;pricey&lt;/em&gt;  compared with other similar London stays</t>
   </si>
   <si>
-    <t>Food drink was delicious but a little pricey</t>
-  </si>
-  <si>
     <t xml:space="preserve">Food drink was delicious but a little  &lt;em&gt;pricey&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Food a little cold and too pricey for what is was</t>
-  </si>
-  <si>
     <t>Food a little cold and too  &lt;em&gt;pricey&lt;/em&gt;  for what is was</t>
   </si>
   <si>
-    <t>A little pricey as room wasn t that big</t>
-  </si>
-  <si>
     <t>A little  &lt;em&gt;pricey&lt;/em&gt;  as room wasn t that big</t>
   </si>
   <si>
-    <t>I felt on reflection that it was pricey for just a room</t>
-  </si>
-  <si>
     <t>I felt on reflection that it was  &lt;em&gt;pricey&lt;/em&gt;  for just a room</t>
   </si>
   <si>
-    <t>The two night stay was a little pricey for a relatively small room and with no breakfast included although the room was clean quiet and comfortable</t>
-  </si>
-  <si>
     <t>The two night stay was a little  &lt;em&gt;pricey&lt;/em&gt;  for a relatively small room and with no breakfast included although the room was clean quiet and comfortable</t>
   </si>
   <si>
-    <t>Bar was pricey but it is london I guess</t>
-  </si>
-  <si>
     <t>Bar was  &lt;em&gt;pricey&lt;/em&gt;  but it is london I guess</t>
   </si>
   <si>
-    <t>It was very very pricey to stay here</t>
-  </si>
-  <si>
     <t>It was very very  &lt;em&gt;pricey&lt;/em&gt;  to stay here</t>
   </si>
   <si>
-    <t>Overall a nice but pricey stay</t>
-  </si>
-  <si>
     <t>Overall a nice but  &lt;em&gt;pricey&lt;/em&gt;  stay</t>
   </si>
   <si>
-    <t>Breakfast far too pricey at 19</t>
-  </si>
-  <si>
     <t>Breakfast far too  &lt;em&gt;pricey&lt;/em&gt;  at 19</t>
   </si>
   <si>
-    <t>The parking in the area was poor and the food was a bit on the pricey side</t>
-  </si>
-  <si>
     <t>The parking in the area was poor and the food was a bit on the  &lt;em&gt;pricey&lt;/em&gt;  side</t>
   </si>
   <si>
-    <t>Breakfast had to be booked and paid separately and rather pricey for a regular hotel buffet and does not offer an omelet they do offer fried eggs</t>
-  </si>
-  <si>
     <t>Breakfast had to be booked and paid separately and rather  &lt;em&gt;pricey&lt;/em&gt;  for a regular hotel buffet and does not offer an omelet they do offer fried eggs</t>
   </si>
   <si>
-    <t>Breakfast is a bit pricey as we were able to walk around the corner to a great little cafe and have a wonderful breakfast for half the price</t>
-  </si>
-  <si>
     <t>Breakfast is a bit  &lt;em&gt;pricey&lt;/em&gt;  as we were able to walk around the corner to a great little cafe and have a wonderful breakfast for half the price</t>
   </si>
   <si>
-    <t>Room was a bit small and breakfast was a little pricey but still within comfortable standards</t>
-  </si>
-  <si>
     <t>Room was a bit small and breakfast was a little  &lt;em&gt;pricey&lt;/em&gt;  but still within comfortable standards</t>
   </si>
   <si>
-    <t>Rooms overall a bit pricey even for London</t>
-  </si>
-  <si>
     <t>Rooms overall a bit  &lt;em&gt;pricey&lt;/em&gt;  even for London</t>
   </si>
   <si>
-    <t>Price of drink in the bars bit pricey</t>
-  </si>
-  <si>
     <t xml:space="preserve">Price of drink in the bars bit  &lt;em&gt;pricey&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Sure it s a bit pricey but you get what you pay for so well worth it</t>
-  </si>
-  <si>
     <t>Sure it s a bit  &lt;em&gt;pricey&lt;/em&gt;  but you get what you pay for so well worth it</t>
   </si>
   <si>
-    <t>food and cocktails are very pricey so be ready to fork out but it is a 5 start hotel</t>
-  </si>
-  <si>
     <t>food and cocktails are very  &lt;em&gt;pricey&lt;/em&gt;  so be ready to fork out but it is a 5 start hotel</t>
   </si>
   <si>
-    <t>A bit pricey in the bar and general cost of food and drink within the hotel was expensive</t>
-  </si>
-  <si>
     <t>A bit  &lt;em&gt;pricey&lt;/em&gt;  in the bar and general cost of food and drink within the hotel was expensive</t>
   </si>
   <si>
-    <t>The Skybar was nice but quite pricey</t>
-  </si>
-  <si>
     <t xml:space="preserve">The Skybar was nice but quite  &lt;em&gt;pricey&lt;/em&gt; </t>
   </si>
   <si>
-    <t>perhaps the route from the Tube could be a bit more pedestrian friendly and the mini bar was on the pricey side</t>
-  </si>
-  <si>
     <t>perhaps the route from the Tube could be a bit more pedestrian friendly and the mini bar was on the  &lt;em&gt;pricey&lt;/em&gt;  side</t>
   </si>
   <si>
-    <t>Having paid quite a bit for the room the pricey minibar and guest charger etc I just found offensive to be honest</t>
-  </si>
-  <si>
     <t>Having paid quite a bit for the room the  &lt;em&gt;pricey&lt;/em&gt;  minibar and guest charger etc I just found offensive to be honest</t>
   </si>
   <si>
-    <t>Restaurant menu was a bit pricey but there were loads of little eatery places nearby within walking distance and the tram stop into the centre was about a 6 minute walk away and only about 3 or 4 stops from the centre of Amsterdam</t>
-  </si>
-  <si>
     <t>Restaurant menu was a bit  &lt;em&gt;pricey&lt;/em&gt;  but there were loads of little eatery places nearby within walking distance and the tram stop into the centre was about a 6 minute walk away and only about 3 or 4 stops from the centre of Amsterdam</t>
   </si>
   <si>
-    <t>Restaurant looked good too but we had cocktails and bar snacks in lounge bar which was excellent if a little pricey</t>
-  </si>
-  <si>
     <t xml:space="preserve">Restaurant looked good too but we had cocktails and bar snacks in lounge bar which was excellent if a little  &lt;em&gt;pricey&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Always seems a bit pricey in London as we are hardly in the room</t>
-  </si>
-  <si>
     <t>Always seems a bit  &lt;em&gt;pricey&lt;/em&gt;  in London as we are hardly in the room</t>
   </si>
   <si>
-    <t>Standard rooms have indoor window view only executive rooms have outside view which is nice but pricey</t>
-  </si>
-  <si>
     <t xml:space="preserve">Standard rooms have indoor window view only executive rooms have outside view which is nice but  &lt;em&gt;pricey&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Great views of the Eiffel Tower from our room on the top floor and staff were helpful although breakfast a little pricey so we ate ours out</t>
-  </si>
-  <si>
     <t>Great views of the Eiffel Tower from our room on the top floor and staff were helpful although breakfast a little  &lt;em&gt;pricey&lt;/em&gt;  so we ate ours out</t>
   </si>
   <si>
-    <t>Food is basic but good and a great selection at the bar not too pricey either definitely recommend</t>
-  </si>
-  <si>
     <t>Food is basic but good and a great selection at the bar not too  &lt;em&gt;pricey&lt;/em&gt;  either definitely recommend</t>
   </si>
   <si>
-    <t>It s pricey but worth it if you want to feel like treating yourself</t>
-  </si>
-  <si>
     <t>It s  &lt;em&gt;pricey&lt;/em&gt;  but worth it if you want to feel like treating yourself</t>
   </si>
   <si>
-    <t>Enjoyed my stay and everything was perfect although the hotel is a bit pricey the quality justifies the price they charge</t>
-  </si>
-  <si>
     <t>Enjoyed my stay and everything was perfect although the hotel is a bit  &lt;em&gt;pricey&lt;/em&gt;  the quality justifies the price they charge</t>
   </si>
   <si>
-    <t>The Sky Bar was a wonderfully relaxed place for a nightcap albeit a bit pricey</t>
-  </si>
-  <si>
     <t xml:space="preserve">The Sky Bar was a wonderfully relaxed place for a nightcap albeit a bit  &lt;em&gt;pricey&lt;/em&gt; </t>
   </si>
   <si>
-    <t>The drinks are pricey so if you are looking to pinch a penny to save a pound then this Hotel is not for you</t>
-  </si>
-  <si>
     <t>The drinks are  &lt;em&gt;pricey&lt;/em&gt;  so if you are looking to pinch a penny to save a pound then this Hotel is not for you</t>
   </si>
   <si>
-    <t>Comfortable and convenient if a bit pricey</t>
-  </si>
-  <si>
     <t xml:space="preserve">Comfortable and convenient if a bit  &lt;em&gt;pricey&lt;/em&gt; </t>
   </si>
   <si>
-    <t>It was very average but pricey for the quality</t>
-  </si>
-  <si>
     <t>It was very average but  &lt;em&gt;pricey&lt;/em&gt;  for the quality</t>
   </si>
   <si>
-    <t>Breakfast looked and smelt delicious but too pricey for us</t>
-  </si>
-  <si>
     <t>Breakfast looked and smelt delicious but too  &lt;em&gt;pricey&lt;/em&gt;  for us</t>
   </si>
   <si>
-    <t>Handy underground parking but pricey</t>
-  </si>
-  <si>
     <t xml:space="preserve">Handy underground parking but  &lt;em&gt;pricey&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Website advertised it as 16 per person so I didn t pre book as I thought this was pricey</t>
-  </si>
-  <si>
     <t xml:space="preserve">Website advertised it as 16 per person so I didn t pre book as I thought this was  &lt;em&gt;pricey&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Breakfast was pretty good but still a bit pricey</t>
-  </si>
-  <si>
     <t xml:space="preserve">Breakfast was pretty good but still a bit  &lt;em&gt;pricey&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Food in the restaurant is also really good not to pricey</t>
-  </si>
-  <si>
     <t xml:space="preserve">Food in the restaurant is also really good not to  &lt;em&gt;pricey&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Room was lovely if a little pricey even for London standards</t>
-  </si>
-  <si>
     <t>Room was lovely if a little  &lt;em&gt;pricey&lt;/em&gt;  even for London standards</t>
   </si>
   <si>
-    <t>London hotels can be pricey for not much</t>
-  </si>
-  <si>
     <t>London hotels can be  &lt;em&gt;pricey&lt;/em&gt;  for not much</t>
   </si>
   <si>
-    <t>Great rooms and view of Eiffel tower although too pricey</t>
-  </si>
-  <si>
     <t xml:space="preserve">Great rooms and view of Eiffel tower although too  &lt;em&gt;pricey&lt;/em&gt; </t>
   </si>
   <si>
-    <t>We paid half of the usual price limited offer online for the booked dates and it was very good value otherwise it would have been a bit pricey</t>
-  </si>
-  <si>
     <t xml:space="preserve">We paid half of the usual price limited offer online for the booked dates and it was very good value otherwise it would have been a bit  &lt;em&gt;pricey&lt;/em&gt; </t>
   </si>
   <si>
-    <t>We had cocktails downstairs which were pricey but not much more than the London norm but they had some original recipes and very good ingredients</t>
-  </si>
-  <si>
     <t>We had cocktails downstairs which were  &lt;em&gt;pricey&lt;/em&gt;  but not much more than the London norm but they had some original recipes and very good ingredients</t>
   </si>
   <si>
-    <t>Although a pricey menu we had a 50 off voucher which brought the overall total to a reasonable price</t>
-  </si>
-  <si>
     <t>Although a  &lt;em&gt;pricey&lt;/em&gt;  menu we had a 50 off voucher which brought the overall total to a reasonable price</t>
   </si>
   <si>
-    <t>The bar is also lovely just a tad pricey</t>
-  </si>
-  <si>
     <t xml:space="preserve">The bar is also lovely just a tad  &lt;em&gt;pricey&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Food was good albeit pricey</t>
-  </si>
-  <si>
     <t xml:space="preserve">Food was good albeit  &lt;em&gt;pricey&lt;/em&gt; </t>
   </si>
   <si>
     <t>idx</t>
+  </si>
+  <si>
+    <t>word_label</t>
+  </si>
+  <si>
+    <t>sense-label</t>
   </si>
 </sst>
 </file>
@@ -1927,60 +1183,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>513</v>
+        <v>263</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1988,10 +1242,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2038,10 +1292,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2088,10 +1342,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2138,10 +1392,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2188,10 +1442,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2238,10 +1492,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2288,10 +1542,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2338,10 +1592,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2388,10 +1642,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2438,10 +1692,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2488,10 +1742,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2538,10 +1792,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2588,10 +1842,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2638,10 +1892,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2688,10 +1942,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2738,10 +1992,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>46</v>
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2788,10 +2042,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2838,10 +2092,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2888,10 +2142,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2938,10 +2192,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" t="s">
-        <v>54</v>
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2988,10 +2242,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" t="s">
-        <v>56</v>
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3038,10 +2292,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" t="s">
-        <v>58</v>
+        <v>34</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3088,10 +2342,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" t="s">
-        <v>60</v>
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3138,10 +2392,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" t="s">
-        <v>62</v>
+        <v>36</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3188,10 +2442,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" t="s">
-        <v>64</v>
+        <v>37</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -3238,10 +2492,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" t="s">
-        <v>66</v>
+        <v>38</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3288,10 +2542,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" t="s">
-        <v>68</v>
+        <v>39</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3338,10 +2592,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" t="s">
-        <v>70</v>
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3388,10 +2642,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" t="s">
-        <v>72</v>
+        <v>41</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3438,10 +2692,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" t="s">
-        <v>74</v>
+        <v>42</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3488,10 +2742,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" t="s">
-        <v>76</v>
+        <v>43</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3538,10 +2792,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" t="s">
-        <v>78</v>
+        <v>44</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3588,10 +2842,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" t="s">
-        <v>80</v>
+        <v>45</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3638,10 +2892,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" t="s">
-        <v>82</v>
+        <v>46</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3688,10 +2942,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" t="s">
-        <v>84</v>
+        <v>47</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -3738,10 +2992,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" t="s">
-        <v>86</v>
+        <v>48</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -3788,10 +3042,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" t="s">
-        <v>88</v>
+        <v>49</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -3838,10 +3092,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" t="s">
-        <v>90</v>
+        <v>50</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -3888,10 +3142,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" t="s">
-        <v>92</v>
+        <v>51</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -3938,10 +3192,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" t="s">
-        <v>94</v>
+        <v>52</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -3988,10 +3242,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" t="s">
-        <v>96</v>
+        <v>53</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -4038,10 +3292,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" t="s">
-        <v>98</v>
+        <v>54</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -4088,10 +3342,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" t="s">
-        <v>100</v>
+        <v>55</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -4138,10 +3392,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" t="s">
-        <v>102</v>
+        <v>56</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -4188,10 +3442,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" t="s">
-        <v>104</v>
+        <v>57</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -4238,10 +3492,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" t="s">
-        <v>106</v>
+        <v>58</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -4288,10 +3542,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" t="s">
-        <v>108</v>
+        <v>59</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -4338,10 +3592,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
-      </c>
-      <c r="C49" t="s">
-        <v>110</v>
+        <v>60</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -4388,10 +3642,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50" t="s">
-        <v>112</v>
+        <v>61</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -4438,10 +3692,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" t="s">
-        <v>114</v>
+        <v>62</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -4488,10 +3742,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>115</v>
-      </c>
-      <c r="C52" t="s">
-        <v>116</v>
+        <v>63</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -4538,10 +3792,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
-      </c>
-      <c r="C53" t="s">
-        <v>118</v>
+        <v>64</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -4588,10 +3842,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>119</v>
-      </c>
-      <c r="C54" t="s">
-        <v>120</v>
+        <v>65</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -4638,10 +3892,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" t="s">
-        <v>122</v>
+        <v>66</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -4688,10 +3942,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" t="s">
-        <v>124</v>
+        <v>67</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -4738,10 +3992,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
-      </c>
-      <c r="C57" t="s">
-        <v>126</v>
+        <v>68</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -4788,10 +4042,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>127</v>
-      </c>
-      <c r="C58" t="s">
-        <v>128</v>
+        <v>69</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -4838,10 +4092,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>129</v>
-      </c>
-      <c r="C59" t="s">
-        <v>130</v>
+        <v>70</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -4888,10 +4142,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>131</v>
-      </c>
-      <c r="C60" t="s">
-        <v>132</v>
+        <v>71</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -4938,10 +4192,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61" t="s">
-        <v>134</v>
+        <v>72</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -4988,10 +4242,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" t="s">
-        <v>136</v>
+        <v>73</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -5038,10 +4292,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
-      </c>
-      <c r="C63" t="s">
-        <v>138</v>
+        <v>74</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -5088,10 +4342,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
-      </c>
-      <c r="C64" t="s">
-        <v>140</v>
+        <v>75</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -5138,10 +4392,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>141</v>
-      </c>
-      <c r="C65" t="s">
-        <v>142</v>
+        <v>76</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -5188,10 +4442,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>143</v>
-      </c>
-      <c r="C66" t="s">
-        <v>144</v>
+        <v>77</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -5238,10 +4492,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>145</v>
-      </c>
-      <c r="C67" t="s">
-        <v>146</v>
+        <v>78</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -5288,10 +4542,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>147</v>
-      </c>
-      <c r="C68" t="s">
-        <v>148</v>
+        <v>79</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -5338,10 +4592,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>149</v>
-      </c>
-      <c r="C69" t="s">
-        <v>150</v>
+        <v>80</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -5388,10 +4642,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>151</v>
-      </c>
-      <c r="C70" t="s">
-        <v>152</v>
+        <v>81</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -5438,10 +4692,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>153</v>
-      </c>
-      <c r="C71" t="s">
-        <v>154</v>
+        <v>82</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -5488,10 +4742,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>155</v>
-      </c>
-      <c r="C72" t="s">
-        <v>156</v>
+        <v>83</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -5538,10 +4792,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>157</v>
-      </c>
-      <c r="C73" t="s">
-        <v>158</v>
+        <v>84</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -5588,10 +4842,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>159</v>
-      </c>
-      <c r="C74" t="s">
-        <v>160</v>
+        <v>85</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -5638,10 +4892,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>161</v>
-      </c>
-      <c r="C75" t="s">
-        <v>162</v>
+        <v>86</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -5688,10 +4942,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>163</v>
-      </c>
-      <c r="C76" t="s">
-        <v>164</v>
+        <v>87</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -5738,10 +4992,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>165</v>
-      </c>
-      <c r="C77" t="s">
-        <v>166</v>
+        <v>88</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -5788,10 +5042,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>167</v>
-      </c>
-      <c r="C78" t="s">
-        <v>168</v>
+        <v>89</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -5838,10 +5092,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>169</v>
-      </c>
-      <c r="C79" t="s">
-        <v>170</v>
+        <v>90</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -5888,10 +5142,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>171</v>
-      </c>
-      <c r="C80" t="s">
-        <v>172</v>
+        <v>91</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -5938,10 +5192,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>173</v>
-      </c>
-      <c r="C81" t="s">
-        <v>174</v>
+        <v>92</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -5988,10 +5242,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>175</v>
-      </c>
-      <c r="C82" t="s">
-        <v>176</v>
+        <v>93</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -6038,10 +5292,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>177</v>
-      </c>
-      <c r="C83" t="s">
-        <v>178</v>
+        <v>94</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -6088,10 +5342,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>179</v>
-      </c>
-      <c r="C84" t="s">
-        <v>180</v>
+        <v>95</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -6138,10 +5392,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>181</v>
-      </c>
-      <c r="C85" t="s">
-        <v>182</v>
+        <v>96</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -6188,10 +5442,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>183</v>
-      </c>
-      <c r="C86" t="s">
-        <v>184</v>
+        <v>97</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -6238,10 +5492,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>185</v>
-      </c>
-      <c r="C87" t="s">
-        <v>186</v>
+        <v>98</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -6288,10 +5542,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>187</v>
-      </c>
-      <c r="C88" t="s">
-        <v>188</v>
+        <v>99</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -6338,10 +5592,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>189</v>
-      </c>
-      <c r="C89" t="s">
-        <v>190</v>
+        <v>100</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -6388,10 +5642,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>191</v>
-      </c>
-      <c r="C90" t="s">
-        <v>192</v>
+        <v>101</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -6438,10 +5692,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>193</v>
-      </c>
-      <c r="C91" t="s">
-        <v>194</v>
+        <v>102</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -6488,10 +5742,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>195</v>
-      </c>
-      <c r="C92" t="s">
-        <v>196</v>
+        <v>103</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -6538,10 +5792,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>197</v>
-      </c>
-      <c r="C93" t="s">
-        <v>198</v>
+        <v>104</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -6588,10 +5842,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>199</v>
-      </c>
-      <c r="C94" t="s">
-        <v>200</v>
+        <v>105</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -6638,10 +5892,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>201</v>
-      </c>
-      <c r="C95" t="s">
-        <v>202</v>
+        <v>106</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -6688,10 +5942,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>203</v>
-      </c>
-      <c r="C96" t="s">
-        <v>204</v>
+        <v>107</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -6738,10 +5992,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>205</v>
-      </c>
-      <c r="C97" t="s">
-        <v>206</v>
+        <v>108</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -6788,10 +6042,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>207</v>
-      </c>
-      <c r="C98" t="s">
-        <v>208</v>
+        <v>109</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -6838,10 +6092,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>209</v>
-      </c>
-      <c r="C99" t="s">
-        <v>210</v>
+        <v>110</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -6888,10 +6142,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>211</v>
-      </c>
-      <c r="C100" t="s">
-        <v>212</v>
+        <v>111</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -6938,10 +6192,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>213</v>
-      </c>
-      <c r="C101" t="s">
-        <v>214</v>
+        <v>112</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -6988,10 +6242,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>215</v>
-      </c>
-      <c r="C102" t="s">
-        <v>216</v>
+        <v>113</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
       </c>
       <c r="D102">
         <v>2</v>
@@ -7038,10 +6292,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>217</v>
-      </c>
-      <c r="C103" t="s">
-        <v>218</v>
+        <v>114</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -7088,10 +6342,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>219</v>
-      </c>
-      <c r="C104" t="s">
-        <v>220</v>
+        <v>115</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
       </c>
       <c r="D104">
         <v>2</v>
@@ -7138,10 +6392,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>221</v>
-      </c>
-      <c r="C105" t="s">
-        <v>222</v>
+        <v>116</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
       </c>
       <c r="D105">
         <v>2</v>
@@ -7188,10 +6442,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>223</v>
-      </c>
-      <c r="C106" t="s">
-        <v>224</v>
+        <v>117</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
       </c>
       <c r="D106">
         <v>2</v>
@@ -7238,10 +6492,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>225</v>
-      </c>
-      <c r="C107" t="s">
-        <v>226</v>
+        <v>118</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
       </c>
       <c r="D107">
         <v>2</v>
@@ -7288,10 +6542,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>227</v>
-      </c>
-      <c r="C108" t="s">
-        <v>228</v>
+        <v>119</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
       </c>
       <c r="D108">
         <v>2</v>
@@ -7338,10 +6592,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>229</v>
-      </c>
-      <c r="C109" t="s">
-        <v>230</v>
+        <v>120</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
       </c>
       <c r="D109">
         <v>2</v>
@@ -7388,10 +6642,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>231</v>
-      </c>
-      <c r="C110" t="s">
-        <v>232</v>
+        <v>121</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
       </c>
       <c r="D110">
         <v>2</v>
@@ -7438,10 +6692,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>233</v>
-      </c>
-      <c r="C111" t="s">
-        <v>234</v>
+        <v>122</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
       </c>
       <c r="D111">
         <v>2</v>
@@ -7488,10 +6742,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>235</v>
-      </c>
-      <c r="C112" t="s">
-        <v>236</v>
+        <v>123</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
       </c>
       <c r="D112">
         <v>2</v>
@@ -7538,10 +6792,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>237</v>
-      </c>
-      <c r="C113" t="s">
-        <v>238</v>
+        <v>124</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
       </c>
       <c r="D113">
         <v>2</v>
@@ -7588,10 +6842,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>239</v>
-      </c>
-      <c r="C114" t="s">
-        <v>240</v>
+        <v>125</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
       </c>
       <c r="D114">
         <v>2</v>
@@ -7638,10 +6892,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>241</v>
-      </c>
-      <c r="C115" t="s">
-        <v>242</v>
+        <v>126</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
       </c>
       <c r="D115">
         <v>2</v>
@@ -7688,10 +6942,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>243</v>
-      </c>
-      <c r="C116" t="s">
-        <v>244</v>
+        <v>127</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
       </c>
       <c r="D116">
         <v>2</v>
@@ -7738,10 +6992,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>245</v>
-      </c>
-      <c r="C117" t="s">
-        <v>246</v>
+        <v>128</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
       </c>
       <c r="D117">
         <v>2</v>
@@ -7788,10 +7042,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>247</v>
-      </c>
-      <c r="C118" t="s">
-        <v>248</v>
+        <v>129</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
       </c>
       <c r="D118">
         <v>2</v>
@@ -7838,10 +7092,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>249</v>
-      </c>
-      <c r="C119" t="s">
-        <v>250</v>
+        <v>130</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -7888,10 +7142,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>251</v>
-      </c>
-      <c r="C120" t="s">
-        <v>252</v>
+        <v>131</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
       </c>
       <c r="D120">
         <v>2</v>
@@ -7938,10 +7192,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>253</v>
-      </c>
-      <c r="C121" t="s">
-        <v>254</v>
+        <v>132</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
       </c>
       <c r="D121">
         <v>2</v>
@@ -7988,10 +7242,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>255</v>
-      </c>
-      <c r="C122" t="s">
-        <v>256</v>
+        <v>133</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
       </c>
       <c r="D122">
         <v>2</v>
@@ -8038,10 +7292,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>257</v>
-      </c>
-      <c r="C123" t="s">
-        <v>258</v>
+        <v>134</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
       </c>
       <c r="D123">
         <v>2</v>
@@ -8088,10 +7342,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>259</v>
-      </c>
-      <c r="C124" t="s">
-        <v>260</v>
+        <v>135</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -8138,10 +7392,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>261</v>
-      </c>
-      <c r="C125" t="s">
-        <v>262</v>
+        <v>136</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
       </c>
       <c r="D125">
         <v>2</v>
@@ -8188,10 +7442,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>263</v>
-      </c>
-      <c r="C126" t="s">
-        <v>264</v>
+        <v>137</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
       </c>
       <c r="D126">
         <v>2</v>
@@ -8238,10 +7492,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>265</v>
-      </c>
-      <c r="C127" t="s">
-        <v>266</v>
+        <v>138</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -8288,10 +7542,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>267</v>
-      </c>
-      <c r="C128" t="s">
-        <v>268</v>
+        <v>139</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
       </c>
       <c r="D128">
         <v>2</v>
@@ -8338,10 +7592,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>269</v>
-      </c>
-      <c r="C129" t="s">
-        <v>270</v>
+        <v>140</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
       </c>
       <c r="D129">
         <v>2</v>
@@ -8388,10 +7642,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>271</v>
-      </c>
-      <c r="C130" t="s">
-        <v>272</v>
+        <v>141</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
       </c>
       <c r="D130">
         <v>2</v>
@@ -8438,10 +7692,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>273</v>
-      </c>
-      <c r="C131" t="s">
-        <v>274</v>
+        <v>142</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
       </c>
       <c r="D131">
         <v>2</v>
@@ -8488,10 +7742,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>275</v>
-      </c>
-      <c r="C132" t="s">
-        <v>276</v>
+        <v>143</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
       </c>
       <c r="D132">
         <v>2</v>
@@ -8538,10 +7792,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>277</v>
-      </c>
-      <c r="C133" t="s">
-        <v>278</v>
+        <v>144</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
       </c>
       <c r="D133">
         <v>2</v>
@@ -8588,10 +7842,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>279</v>
-      </c>
-      <c r="C134" t="s">
-        <v>280</v>
+        <v>145</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
       </c>
       <c r="D134">
         <v>2</v>
@@ -8638,10 +7892,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>281</v>
-      </c>
-      <c r="C135" t="s">
-        <v>282</v>
+        <v>146</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
       </c>
       <c r="D135">
         <v>2</v>
@@ -8688,10 +7942,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>283</v>
-      </c>
-      <c r="C136" t="s">
-        <v>284</v>
+        <v>147</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
       </c>
       <c r="D136">
         <v>2</v>
@@ -8738,10 +7992,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>285</v>
-      </c>
-      <c r="C137" t="s">
-        <v>286</v>
+        <v>148</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
       </c>
       <c r="D137">
         <v>2</v>
@@ -8788,10 +8042,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>287</v>
-      </c>
-      <c r="C138" t="s">
-        <v>288</v>
+        <v>149</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
       </c>
       <c r="D138">
         <v>2</v>
@@ -8838,10 +8092,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>289</v>
-      </c>
-      <c r="C139" t="s">
-        <v>290</v>
+        <v>150</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
       </c>
       <c r="D139">
         <v>2</v>
@@ -8888,10 +8142,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>291</v>
-      </c>
-      <c r="C140" t="s">
-        <v>292</v>
+        <v>151</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
       </c>
       <c r="D140">
         <v>2</v>
@@ -8938,10 +8192,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>293</v>
-      </c>
-      <c r="C141" t="s">
-        <v>294</v>
+        <v>152</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
       </c>
       <c r="D141">
         <v>2</v>
@@ -8988,10 +8242,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>295</v>
-      </c>
-      <c r="C142" t="s">
-        <v>296</v>
+        <v>153</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
       </c>
       <c r="D142">
         <v>2</v>
@@ -9038,10 +8292,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>297</v>
-      </c>
-      <c r="C143" t="s">
-        <v>298</v>
+        <v>154</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
       </c>
       <c r="D143">
         <v>2</v>
@@ -9088,10 +8342,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>299</v>
-      </c>
-      <c r="C144" t="s">
-        <v>300</v>
+        <v>155</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
       </c>
       <c r="D144">
         <v>2</v>
@@ -9138,10 +8392,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>301</v>
-      </c>
-      <c r="C145" t="s">
-        <v>302</v>
+        <v>156</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
       </c>
       <c r="D145">
         <v>2</v>
@@ -9188,10 +8442,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>303</v>
-      </c>
-      <c r="C146" t="s">
-        <v>304</v>
+        <v>157</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
       </c>
       <c r="D146">
         <v>2</v>
@@ -9238,10 +8492,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>305</v>
-      </c>
-      <c r="C147" t="s">
-        <v>306</v>
+        <v>158</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
       </c>
       <c r="D147">
         <v>2</v>
@@ -9288,10 +8542,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>307</v>
-      </c>
-      <c r="C148" t="s">
-        <v>308</v>
+        <v>159</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
       </c>
       <c r="D148">
         <v>2</v>
@@ -9338,10 +8592,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>309</v>
-      </c>
-      <c r="C149" t="s">
-        <v>310</v>
+        <v>160</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
       </c>
       <c r="D149">
         <v>2</v>
@@ -9388,10 +8642,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>311</v>
-      </c>
-      <c r="C150" t="s">
-        <v>312</v>
+        <v>161</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
       </c>
       <c r="D150">
         <v>2</v>
@@ -9438,10 +8692,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>313</v>
-      </c>
-      <c r="C151" t="s">
-        <v>314</v>
+        <v>162</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
       </c>
       <c r="D151">
         <v>2</v>
@@ -9488,10 +8742,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>315</v>
-      </c>
-      <c r="C152" t="s">
-        <v>316</v>
+        <v>163</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
       </c>
       <c r="D152">
         <v>3</v>
@@ -9538,10 +8792,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>317</v>
-      </c>
-      <c r="C153" t="s">
-        <v>318</v>
+        <v>164</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
       </c>
       <c r="D153">
         <v>3</v>
@@ -9588,10 +8842,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>319</v>
-      </c>
-      <c r="C154" t="s">
-        <v>320</v>
+        <v>165</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
       </c>
       <c r="D154">
         <v>3</v>
@@ -9638,10 +8892,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>321</v>
-      </c>
-      <c r="C155" t="s">
-        <v>322</v>
+        <v>166</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
       </c>
       <c r="D155">
         <v>3</v>
@@ -9688,10 +8942,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>323</v>
-      </c>
-      <c r="C156" t="s">
-        <v>324</v>
+        <v>167</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
       </c>
       <c r="D156">
         <v>3</v>
@@ -9738,10 +8992,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>325</v>
-      </c>
-      <c r="C157" t="s">
-        <v>326</v>
+        <v>168</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
       </c>
       <c r="D157">
         <v>3</v>
@@ -9788,10 +9042,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>327</v>
-      </c>
-      <c r="C158" t="s">
-        <v>328</v>
+        <v>169</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
       </c>
       <c r="D158">
         <v>3</v>
@@ -9838,10 +9092,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>329</v>
-      </c>
-      <c r="C159" t="s">
-        <v>330</v>
+        <v>170</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
       </c>
       <c r="D159">
         <v>3</v>
@@ -9888,10 +9142,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>331</v>
-      </c>
-      <c r="C160" t="s">
-        <v>332</v>
+        <v>171</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
       </c>
       <c r="D160">
         <v>3</v>
@@ -9938,10 +9192,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>333</v>
-      </c>
-      <c r="C161" t="s">
-        <v>334</v>
+        <v>172</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
       </c>
       <c r="D161">
         <v>3</v>
@@ -9988,10 +9242,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>335</v>
-      </c>
-      <c r="C162" t="s">
-        <v>336</v>
+        <v>173</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
       </c>
       <c r="D162">
         <v>3</v>
@@ -10038,10 +9292,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>337</v>
-      </c>
-      <c r="C163" t="s">
-        <v>338</v>
+        <v>174</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
       </c>
       <c r="D163">
         <v>3</v>
@@ -10088,10 +9342,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>339</v>
-      </c>
-      <c r="C164" t="s">
-        <v>340</v>
+        <v>175</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
       </c>
       <c r="D164">
         <v>3</v>
@@ -10138,10 +9392,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>341</v>
-      </c>
-      <c r="C165" t="s">
-        <v>342</v>
+        <v>176</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
       </c>
       <c r="D165">
         <v>3</v>
@@ -10188,10 +9442,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>343</v>
-      </c>
-      <c r="C166" t="s">
-        <v>344</v>
+        <v>177</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
       </c>
       <c r="D166">
         <v>3</v>
@@ -10238,10 +9492,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>345</v>
-      </c>
-      <c r="C167" t="s">
-        <v>346</v>
+        <v>178</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
       </c>
       <c r="D167">
         <v>3</v>
@@ -10288,10 +9542,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>347</v>
-      </c>
-      <c r="C168" t="s">
-        <v>348</v>
+        <v>179</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
       </c>
       <c r="D168">
         <v>3</v>
@@ -10338,10 +9592,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>349</v>
-      </c>
-      <c r="C169" t="s">
-        <v>350</v>
+        <v>180</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
       </c>
       <c r="D169">
         <v>3</v>
@@ -10388,10 +9642,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>351</v>
-      </c>
-      <c r="C170" t="s">
-        <v>352</v>
+        <v>181</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
       </c>
       <c r="D170">
         <v>3</v>
@@ -10438,10 +9692,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>353</v>
-      </c>
-      <c r="C171" t="s">
-        <v>354</v>
+        <v>182</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
       </c>
       <c r="D171">
         <v>3</v>
@@ -10488,10 +9742,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>355</v>
-      </c>
-      <c r="C172" t="s">
-        <v>356</v>
+        <v>183</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
       </c>
       <c r="D172">
         <v>3</v>
@@ -10538,10 +9792,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>357</v>
-      </c>
-      <c r="C173" t="s">
-        <v>358</v>
+        <v>184</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
       </c>
       <c r="D173">
         <v>3</v>
@@ -10588,10 +9842,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>359</v>
-      </c>
-      <c r="C174" t="s">
-        <v>360</v>
+        <v>185</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
       </c>
       <c r="D174">
         <v>3</v>
@@ -10638,10 +9892,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>361</v>
-      </c>
-      <c r="C175" t="s">
-        <v>362</v>
+        <v>186</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
       </c>
       <c r="D175">
         <v>3</v>
@@ -10688,10 +9942,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>363</v>
-      </c>
-      <c r="C176" t="s">
-        <v>364</v>
+        <v>187</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
       </c>
       <c r="D176">
         <v>3</v>
@@ -10738,10 +9992,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>149</v>
-      </c>
-      <c r="C177" t="s">
-        <v>365</v>
+        <v>188</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
       </c>
       <c r="D177">
         <v>3</v>
@@ -10788,10 +10042,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>366</v>
-      </c>
-      <c r="C178" t="s">
-        <v>367</v>
+        <v>189</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
       </c>
       <c r="D178">
         <v>3</v>
@@ -10838,10 +10092,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>368</v>
-      </c>
-      <c r="C179" t="s">
-        <v>369</v>
+        <v>190</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
       </c>
       <c r="D179">
         <v>3</v>
@@ -10888,10 +10142,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>370</v>
-      </c>
-      <c r="C180" t="s">
-        <v>371</v>
+        <v>191</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
       </c>
       <c r="D180">
         <v>3</v>
@@ -10938,10 +10192,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>372</v>
-      </c>
-      <c r="C181" t="s">
-        <v>373</v>
+        <v>192</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
       </c>
       <c r="D181">
         <v>3</v>
@@ -10988,10 +10242,10 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>374</v>
-      </c>
-      <c r="C182" t="s">
-        <v>375</v>
+        <v>193</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
       </c>
       <c r="D182">
         <v>3</v>
@@ -11038,10 +10292,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>376</v>
-      </c>
-      <c r="C183" t="s">
-        <v>377</v>
+        <v>194</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
       </c>
       <c r="D183">
         <v>3</v>
@@ -11088,10 +10342,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>378</v>
-      </c>
-      <c r="C184" t="s">
-        <v>379</v>
+        <v>195</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
       </c>
       <c r="D184">
         <v>3</v>
@@ -11138,10 +10392,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>380</v>
-      </c>
-      <c r="C185" t="s">
-        <v>381</v>
+        <v>196</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
       </c>
       <c r="D185">
         <v>3</v>
@@ -11188,10 +10442,10 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>382</v>
-      </c>
-      <c r="C186" t="s">
-        <v>383</v>
+        <v>197</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
       </c>
       <c r="D186">
         <v>3</v>
@@ -11238,10 +10492,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>384</v>
-      </c>
-      <c r="C187" t="s">
-        <v>385</v>
+        <v>198</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
       </c>
       <c r="D187">
         <v>3</v>
@@ -11288,10 +10542,10 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>386</v>
-      </c>
-      <c r="C188" t="s">
-        <v>387</v>
+        <v>199</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
       </c>
       <c r="D188">
         <v>3</v>
@@ -11338,10 +10592,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>388</v>
-      </c>
-      <c r="C189" t="s">
-        <v>389</v>
+        <v>200</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
       </c>
       <c r="D189">
         <v>3</v>
@@ -11388,10 +10642,10 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>390</v>
-      </c>
-      <c r="C190" t="s">
-        <v>391</v>
+        <v>201</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
       </c>
       <c r="D190">
         <v>3</v>
@@ -11438,10 +10692,10 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>392</v>
-      </c>
-      <c r="C191" t="s">
-        <v>393</v>
+        <v>202</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
       </c>
       <c r="D191">
         <v>3</v>
@@ -11488,10 +10742,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>394</v>
-      </c>
-      <c r="C192" t="s">
-        <v>395</v>
+        <v>203</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
       </c>
       <c r="D192">
         <v>3</v>
@@ -11538,10 +10792,10 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>396</v>
-      </c>
-      <c r="C193" t="s">
-        <v>397</v>
+        <v>204</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
       </c>
       <c r="D193">
         <v>3</v>
@@ -11588,10 +10842,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>398</v>
-      </c>
-      <c r="C194" t="s">
-        <v>399</v>
+        <v>205</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
       </c>
       <c r="D194">
         <v>3</v>
@@ -11638,10 +10892,10 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>400</v>
-      </c>
-      <c r="C195" t="s">
-        <v>401</v>
+        <v>206</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
       </c>
       <c r="D195">
         <v>3</v>
@@ -11688,10 +10942,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>402</v>
-      </c>
-      <c r="C196" t="s">
-        <v>403</v>
+        <v>207</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
       </c>
       <c r="D196">
         <v>3</v>
@@ -11738,10 +10992,10 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>404</v>
-      </c>
-      <c r="C197" t="s">
-        <v>405</v>
+        <v>208</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
       </c>
       <c r="D197">
         <v>3</v>
@@ -11788,10 +11042,10 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>406</v>
-      </c>
-      <c r="C198" t="s">
-        <v>407</v>
+        <v>209</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
       </c>
       <c r="D198">
         <v>3</v>
@@ -11838,10 +11092,10 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>277</v>
-      </c>
-      <c r="C199" t="s">
-        <v>408</v>
+        <v>210</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
       </c>
       <c r="D199">
         <v>3</v>
@@ -11888,10 +11142,10 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>409</v>
-      </c>
-      <c r="C200" t="s">
-        <v>410</v>
+        <v>211</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
       </c>
       <c r="D200">
         <v>3</v>
@@ -11938,10 +11192,10 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>411</v>
-      </c>
-      <c r="C201" t="s">
-        <v>412</v>
+        <v>212</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
       </c>
       <c r="D201">
         <v>3</v>
@@ -11988,10 +11242,10 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>413</v>
-      </c>
-      <c r="C202" t="s">
-        <v>414</v>
+        <v>213</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
       </c>
       <c r="D202">
         <v>4</v>
@@ -12038,10 +11292,10 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>415</v>
-      </c>
-      <c r="C203" t="s">
-        <v>416</v>
+        <v>214</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
       </c>
       <c r="D203">
         <v>4</v>
@@ -12088,10 +11342,10 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>417</v>
-      </c>
-      <c r="C204" t="s">
-        <v>418</v>
+        <v>215</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
       </c>
       <c r="D204">
         <v>4</v>
@@ -12138,10 +11392,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>419</v>
-      </c>
-      <c r="C205" t="s">
-        <v>420</v>
+        <v>216</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
       </c>
       <c r="D205">
         <v>4</v>
@@ -12188,10 +11442,10 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>421</v>
-      </c>
-      <c r="C206" t="s">
-        <v>422</v>
+        <v>217</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
       </c>
       <c r="D206">
         <v>4</v>
@@ -12238,10 +11492,10 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>423</v>
-      </c>
-      <c r="C207" t="s">
-        <v>424</v>
+        <v>218</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
       </c>
       <c r="D207">
         <v>4</v>
@@ -12288,10 +11542,10 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>425</v>
-      </c>
-      <c r="C208" t="s">
-        <v>426</v>
+        <v>219</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
       </c>
       <c r="D208">
         <v>4</v>
@@ -12338,10 +11592,10 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>427</v>
-      </c>
-      <c r="C209" t="s">
-        <v>428</v>
+        <v>220</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
       </c>
       <c r="D209">
         <v>4</v>
@@ -12388,10 +11642,10 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>429</v>
-      </c>
-      <c r="C210" t="s">
-        <v>430</v>
+        <v>221</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
       </c>
       <c r="D210">
         <v>4</v>
@@ -12438,10 +11692,10 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>431</v>
-      </c>
-      <c r="C211" t="s">
-        <v>432</v>
+        <v>222</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
       </c>
       <c r="D211">
         <v>4</v>
@@ -12488,10 +11742,10 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>433</v>
-      </c>
-      <c r="C212" t="s">
-        <v>434</v>
+        <v>223</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
       </c>
       <c r="D212">
         <v>4</v>
@@ -12538,10 +11792,10 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>435</v>
-      </c>
-      <c r="C213" t="s">
-        <v>436</v>
+        <v>224</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
       </c>
       <c r="D213">
         <v>4</v>
@@ -12588,10 +11842,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>437</v>
-      </c>
-      <c r="C214" t="s">
-        <v>438</v>
+        <v>225</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
       </c>
       <c r="D214">
         <v>4</v>
@@ -12638,10 +11892,10 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>439</v>
-      </c>
-      <c r="C215" t="s">
-        <v>440</v>
+        <v>226</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
       </c>
       <c r="D215">
         <v>4</v>
@@ -12688,10 +11942,10 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>441</v>
-      </c>
-      <c r="C216" t="s">
-        <v>442</v>
+        <v>227</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
       </c>
       <c r="D216">
         <v>4</v>
@@ -12738,10 +11992,10 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>443</v>
-      </c>
-      <c r="C217" t="s">
-        <v>444</v>
+        <v>228</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
       </c>
       <c r="D217">
         <v>4</v>
@@ -12788,10 +12042,10 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>445</v>
-      </c>
-      <c r="C218" t="s">
-        <v>446</v>
+        <v>229</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
       </c>
       <c r="D218">
         <v>4</v>
@@ -12838,10 +12092,10 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>447</v>
-      </c>
-      <c r="C219" t="s">
-        <v>448</v>
+        <v>230</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
       </c>
       <c r="D219">
         <v>4</v>
@@ -12888,10 +12142,10 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>449</v>
-      </c>
-      <c r="C220" t="s">
-        <v>450</v>
+        <v>231</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
       </c>
       <c r="D220">
         <v>4</v>
@@ -12938,10 +12192,10 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>451</v>
-      </c>
-      <c r="C221" t="s">
-        <v>452</v>
+        <v>232</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
       </c>
       <c r="D221">
         <v>4</v>
@@ -12988,10 +12242,10 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>453</v>
-      </c>
-      <c r="C222" t="s">
-        <v>454</v>
+        <v>233</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
       </c>
       <c r="D222">
         <v>4</v>
@@ -13038,10 +12292,10 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>455</v>
-      </c>
-      <c r="C223" t="s">
-        <v>456</v>
+        <v>234</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
       </c>
       <c r="D223">
         <v>4</v>
@@ -13088,10 +12342,10 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>457</v>
-      </c>
-      <c r="C224" t="s">
-        <v>458</v>
+        <v>235</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
       </c>
       <c r="D224">
         <v>4</v>
@@ -13138,10 +12392,10 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>459</v>
-      </c>
-      <c r="C225" t="s">
-        <v>460</v>
+        <v>236</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
       </c>
       <c r="D225">
         <v>4</v>
@@ -13188,10 +12442,10 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>461</v>
-      </c>
-      <c r="C226" t="s">
-        <v>462</v>
+        <v>237</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
       </c>
       <c r="D226">
         <v>4</v>
@@ -13238,10 +12492,10 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>463</v>
-      </c>
-      <c r="C227" t="s">
-        <v>464</v>
+        <v>238</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
       </c>
       <c r="D227">
         <v>4</v>
@@ -13288,10 +12542,10 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>465</v>
-      </c>
-      <c r="C228" t="s">
-        <v>466</v>
+        <v>239</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
       </c>
       <c r="D228">
         <v>4</v>
@@ -13338,10 +12592,10 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>467</v>
-      </c>
-      <c r="C229" t="s">
-        <v>468</v>
+        <v>240</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
       </c>
       <c r="D229">
         <v>4</v>
@@ -13388,10 +12642,10 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>469</v>
-      </c>
-      <c r="C230" t="s">
-        <v>470</v>
+        <v>241</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
       </c>
       <c r="D230">
         <v>4</v>
@@ -13438,10 +12692,10 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>471</v>
-      </c>
-      <c r="C231" t="s">
-        <v>472</v>
+        <v>242</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
       </c>
       <c r="D231">
         <v>4</v>
@@ -13488,10 +12742,10 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>473</v>
-      </c>
-      <c r="C232" t="s">
-        <v>474</v>
+        <v>243</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
       </c>
       <c r="D232">
         <v>4</v>
@@ -13538,10 +12792,10 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>475</v>
-      </c>
-      <c r="C233" t="s">
-        <v>476</v>
+        <v>244</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
       </c>
       <c r="D233">
         <v>4</v>
@@ -13588,10 +12842,10 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>477</v>
-      </c>
-      <c r="C234" t="s">
-        <v>478</v>
+        <v>245</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
       </c>
       <c r="D234">
         <v>4</v>
@@ -13638,10 +12892,10 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>479</v>
-      </c>
-      <c r="C235" t="s">
-        <v>480</v>
+        <v>246</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
       </c>
       <c r="D235">
         <v>4</v>
@@ -13688,10 +12942,10 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>481</v>
-      </c>
-      <c r="C236" t="s">
-        <v>482</v>
+        <v>247</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
       </c>
       <c r="D236">
         <v>4</v>
@@ -13738,10 +12992,10 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>483</v>
-      </c>
-      <c r="C237" t="s">
-        <v>484</v>
+        <v>248</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
       </c>
       <c r="D237">
         <v>4</v>
@@ -13788,10 +13042,10 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>485</v>
-      </c>
-      <c r="C238" t="s">
-        <v>486</v>
+        <v>249</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
       </c>
       <c r="D238">
         <v>4</v>
@@ -13838,10 +13092,10 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>487</v>
-      </c>
-      <c r="C239" t="s">
-        <v>488</v>
+        <v>250</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
       </c>
       <c r="D239">
         <v>4</v>
@@ -13888,10 +13142,10 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>489</v>
-      </c>
-      <c r="C240" t="s">
-        <v>490</v>
+        <v>251</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
       </c>
       <c r="D240">
         <v>4</v>
@@ -13938,10 +13192,10 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>491</v>
-      </c>
-      <c r="C241" t="s">
-        <v>492</v>
+        <v>252</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
       </c>
       <c r="D241">
         <v>4</v>
@@ -13988,10 +13242,10 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>493</v>
-      </c>
-      <c r="C242" t="s">
-        <v>494</v>
+        <v>253</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
       </c>
       <c r="D242">
         <v>4</v>
@@ -14038,10 +13292,10 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>495</v>
-      </c>
-      <c r="C243" t="s">
-        <v>496</v>
+        <v>254</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
       </c>
       <c r="D243">
         <v>4</v>
@@ -14088,10 +13342,10 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>497</v>
-      </c>
-      <c r="C244" t="s">
-        <v>498</v>
+        <v>255</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
       </c>
       <c r="D244">
         <v>4</v>
@@ -14138,10 +13392,10 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>499</v>
-      </c>
-      <c r="C245" t="s">
-        <v>500</v>
+        <v>256</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
       </c>
       <c r="D245">
         <v>4</v>
@@ -14188,10 +13442,10 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>501</v>
-      </c>
-      <c r="C246" t="s">
-        <v>502</v>
+        <v>257</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
       </c>
       <c r="D246">
         <v>4</v>
@@ -14238,10 +13492,10 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>503</v>
-      </c>
-      <c r="C247" t="s">
-        <v>504</v>
+        <v>258</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
       </c>
       <c r="D247">
         <v>4</v>
@@ -14288,10 +13542,10 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>505</v>
-      </c>
-      <c r="C248" t="s">
-        <v>506</v>
+        <v>259</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
       </c>
       <c r="D248">
         <v>4</v>
@@ -14338,10 +13592,10 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>507</v>
-      </c>
-      <c r="C249" t="s">
-        <v>508</v>
+        <v>260</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
       </c>
       <c r="D249">
         <v>4</v>
@@ -14388,10 +13642,10 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>509</v>
-      </c>
-      <c r="C250" t="s">
-        <v>510</v>
+        <v>261</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
       </c>
       <c r="D250">
         <v>4</v>
@@ -14438,10 +13692,10 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>511</v>
-      </c>
-      <c r="C251" t="s">
-        <v>512</v>
+        <v>262</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
       </c>
       <c r="D251">
         <v>4</v>

--- a/Hotel_df_list2.xlsx
+++ b/Hotel_df_list2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rezas\OneDrive\Desktop\Thesis\Word-Meaning\Results\phase09\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rezas\OneDrive\Desktop\Thesis\Word-Meaning\Results\phase14\ContextLens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68DE569-B7DC-4BAA-8F1B-65D8DE353A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B15633-2359-4CA1-9372-ED0C5CD52DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -817,7 +817,7 @@
     <t>word_label</t>
   </si>
   <si>
-    <t>sense-label</t>
+    <t>sense_label</t>
   </si>
 </sst>
 </file>
@@ -1183,7 +1183,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
